--- a/listas_de_pagamentos.xlsx
+++ b/listas_de_pagamentos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr updateLinks="never" codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hrg-74977\GEOF\PAGAMENTOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14343258\PycharmProjects\GEOF_certidoes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5249" uniqueCount="3147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5251" uniqueCount="3147">
   <si>
     <t xml:space="preserve"> - Bruno</t>
   </si>
@@ -10273,7 +10273,7 @@
     <numFmt numFmtId="165" formatCode="&quot;R$ &quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="000,000"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -18427,10 +18427,10 @@
   <dimension ref="A1:F341"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.28515625" customWidth="1"/>
@@ -18438,7 +18438,7 @@
     <col min="5" max="6" width="29.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="19.5" thickBot="1">
       <c r="A1" s="32" t="s">
         <v>2764</v>
       </c>
@@ -18458,7 +18458,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="33" t="s">
         <v>32</v>
       </c>
@@ -18478,7 +18478,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" thickTop="1">
       <c r="A3" s="34" t="s">
         <v>144</v>
       </c>
@@ -18498,7 +18498,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="35" t="s">
         <v>149</v>
       </c>
@@ -18518,7 +18518,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="34" t="s">
         <v>55</v>
       </c>
@@ -18538,7 +18538,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="35" t="s">
         <v>151</v>
       </c>
@@ -18558,7 +18558,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="35" t="s">
         <v>133</v>
       </c>
@@ -18578,7 +18578,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="35" t="s">
         <v>154</v>
       </c>
@@ -18598,7 +18598,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="34" t="s">
         <v>148</v>
       </c>
@@ -18618,7 +18618,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="35" t="s">
         <v>134</v>
       </c>
@@ -18638,7 +18638,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="34" t="s">
         <v>67</v>
       </c>
@@ -18658,7 +18658,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="25.5">
       <c r="A12" s="35" t="s">
         <v>142</v>
       </c>
@@ -18678,7 +18678,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="35" t="s">
         <v>147</v>
       </c>
@@ -18698,7 +18698,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="35" t="s">
         <v>57</v>
       </c>
@@ -18718,7 +18718,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="35" t="s">
         <v>132</v>
       </c>
@@ -18738,7 +18738,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="25.5">
       <c r="A16" s="35" t="s">
         <v>143</v>
       </c>
@@ -18758,7 +18758,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="35" t="s">
         <v>158</v>
       </c>
@@ -18778,7 +18778,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="35" t="s">
         <v>161</v>
       </c>
@@ -18798,7 +18798,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="34" t="s">
         <v>66</v>
       </c>
@@ -18818,7 +18818,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="34" t="s">
         <v>103</v>
       </c>
@@ -18838,7 +18838,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="37" t="s">
         <v>176</v>
       </c>
@@ -18858,7 +18858,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="34" t="s">
         <v>138</v>
       </c>
@@ -18878,7 +18878,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="37" t="s">
         <v>170</v>
       </c>
@@ -18898,7 +18898,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="35" t="s">
         <v>155</v>
       </c>
@@ -18918,7 +18918,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="35" t="s">
         <v>162</v>
       </c>
@@ -18938,7 +18938,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="35" t="s">
         <v>163</v>
       </c>
@@ -18958,7 +18958,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="34" t="s">
         <v>102</v>
       </c>
@@ -18978,7 +18978,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="35" t="s">
         <v>44</v>
       </c>
@@ -18998,7 +18998,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="34" t="s">
         <v>164</v>
       </c>
@@ -19018,7 +19018,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="35" t="s">
         <v>139</v>
       </c>
@@ -19038,7 +19038,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="35" t="s">
         <v>136</v>
       </c>
@@ -19055,7 +19055,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="37" t="s">
         <v>177</v>
       </c>
@@ -19072,7 +19072,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="34" t="s">
         <v>152</v>
       </c>
@@ -19089,7 +19089,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="35" t="s">
         <v>160</v>
       </c>
@@ -19106,7 +19106,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="35" t="s">
         <v>150</v>
       </c>
@@ -19120,7 +19120,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="35" t="s">
         <v>145</v>
       </c>
@@ -19134,7 +19134,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="35" t="s">
         <v>165</v>
       </c>
@@ -19148,7 +19148,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="35" t="s">
         <v>131</v>
       </c>
@@ -19159,7 +19159,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="35" t="s">
         <v>80</v>
       </c>
@@ -19170,7 +19170,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="35" t="s">
         <v>140</v>
       </c>
@@ -19178,7 +19178,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" s="34" t="s">
         <v>64</v>
       </c>
@@ -19186,47 +19186,53 @@
         <v>150</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="35" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" s="35" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="18.75">
       <c r="A44" s="35" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C44" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="D44" s="44" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="35" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" s="35" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" s="35" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" s="34" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" s="35" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6" ht="24" thickBot="1">
       <c r="A51" s="32" t="s">
         <v>222</v>
       </c>
@@ -19246,7 +19252,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A52" s="39" t="s">
         <v>32</v>
       </c>
@@ -19266,7 +19272,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="15.75" thickTop="1">
       <c r="A53" s="35" t="s">
         <v>55</v>
       </c>
@@ -19286,7 +19292,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54" s="35" t="s">
         <v>151</v>
       </c>
@@ -19306,7 +19312,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55" s="35" t="s">
         <v>133</v>
       </c>
@@ -19326,7 +19332,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56" s="34" t="s">
         <v>67</v>
       </c>
@@ -19346,7 +19352,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57" s="35" t="s">
         <v>57</v>
       </c>
@@ -19366,7 +19372,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58" s="31" t="s">
         <v>184</v>
       </c>
@@ -19386,7 +19392,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="25.5">
       <c r="A59" s="34" t="s">
         <v>216</v>
       </c>
@@ -19406,7 +19412,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" s="35" t="s">
         <v>161</v>
       </c>
@@ -19426,7 +19432,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61" s="35" t="s">
         <v>178</v>
       </c>
@@ -19446,7 +19452,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62" s="35" t="s">
         <v>66</v>
       </c>
@@ -19466,7 +19472,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63" s="35" t="s">
         <v>198</v>
       </c>
@@ -19486,7 +19492,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64" s="35" t="s">
         <v>103</v>
       </c>
@@ -19506,7 +19512,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65" s="35" t="s">
         <v>202</v>
       </c>
@@ -19526,7 +19532,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="A66" s="35" t="s">
         <v>155</v>
       </c>
@@ -19546,7 +19552,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="A67" s="36" t="s">
         <v>130</v>
       </c>
@@ -19566,7 +19572,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="A68" s="34" t="s">
         <v>163</v>
       </c>
@@ -19586,7 +19592,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="A69" s="35" t="s">
         <v>44</v>
       </c>
@@ -19606,7 +19612,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="A70" s="35" t="s">
         <v>219</v>
       </c>
@@ -19626,7 +19632,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="A71" s="35" t="s">
         <v>175</v>
       </c>
@@ -19646,7 +19652,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="A72" s="35" t="s">
         <v>136</v>
       </c>
@@ -19666,7 +19672,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="A73" s="34" t="s">
         <v>160</v>
       </c>
@@ -19686,7 +19692,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6">
       <c r="A74" s="35" t="s">
         <v>165</v>
       </c>
@@ -19706,7 +19712,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6">
       <c r="A75" s="35" t="s">
         <v>221</v>
       </c>
@@ -19726,7 +19732,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6">
       <c r="A76" s="43" t="s">
         <v>183</v>
       </c>
@@ -19746,7 +19752,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6">
       <c r="A77" s="35" t="s">
         <v>135</v>
       </c>
@@ -19766,7 +19772,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6">
       <c r="A78" s="35" t="s">
         <v>146</v>
       </c>
@@ -19786,7 +19792,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="A79" s="35" t="s">
         <v>205</v>
       </c>
@@ -19797,7 +19803,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6">
       <c r="A80" s="34" t="s">
         <v>213</v>
       </c>
@@ -19808,7 +19814,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6">
       <c r="A81" s="35" t="s">
         <v>195</v>
       </c>
@@ -19819,7 +19825,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6">
       <c r="A82" s="35" t="s">
         <v>169</v>
       </c>
@@ -19827,27 +19833,27 @@
         <v>174</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6">
       <c r="B83" s="35" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6">
       <c r="B84" s="35" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6">
       <c r="B85" s="35" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6">
       <c r="B86" s="35" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" ht="19.5" thickBot="1">
       <c r="A88" s="46" t="s">
         <v>253</v>
       </c>
@@ -19867,7 +19873,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A89" s="48" t="s">
         <v>32</v>
       </c>
@@ -19887,7 +19893,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="15.75" thickTop="1">
       <c r="A90" s="3" t="s">
         <v>146</v>
       </c>
@@ -19907,7 +19913,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="25.5">
       <c r="A91" s="3" t="s">
         <v>192</v>
       </c>
@@ -19927,7 +19933,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6">
       <c r="A92" s="3" t="s">
         <v>169</v>
       </c>
@@ -19945,7 +19951,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6">
       <c r="C93" s="35" t="s">
         <v>202</v>
       </c>
@@ -19959,7 +19965,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6">
       <c r="C94" s="35" t="s">
         <v>199</v>
       </c>
@@ -19973,7 +19979,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6">
       <c r="C95" s="35" t="s">
         <v>235</v>
       </c>
@@ -19984,7 +19990,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="25.5">
       <c r="C96" s="36" t="s">
         <v>226</v>
       </c>
@@ -19995,7 +20001,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:6">
       <c r="C97" s="35" t="s">
         <v>228</v>
       </c>
@@ -20006,7 +20012,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:6">
       <c r="D98" s="35" t="s">
         <v>66</v>
       </c>
@@ -20014,7 +20020,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="99" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:6">
       <c r="D99" s="35" t="s">
         <v>99</v>
       </c>
@@ -20022,7 +20028,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="100" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:6">
       <c r="D100" s="34" t="s">
         <v>103</v>
       </c>
@@ -20030,7 +20036,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="101" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:6">
       <c r="D101" s="35" t="s">
         <v>246</v>
       </c>
@@ -20038,7 +20044,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="102" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:6">
       <c r="D102" s="35" t="s">
         <v>202</v>
       </c>
@@ -20046,7 +20052,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="103" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:6">
       <c r="D103" s="35" t="s">
         <v>181</v>
       </c>
@@ -20054,7 +20060,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="104" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:6">
       <c r="D104" s="31" t="s">
         <v>226</v>
       </c>
@@ -20062,7 +20068,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="105" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:6">
       <c r="D105" s="31" t="s">
         <v>170</v>
       </c>
@@ -20070,92 +20076,92 @@
         <v>240</v>
       </c>
     </row>
-    <row r="106" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:6">
       <c r="D106" s="35" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="107" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:6">
       <c r="D107" s="35" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="108" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:6">
       <c r="D108" s="35" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="109" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:6">
       <c r="D109" s="35" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="110" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:6">
       <c r="D110" s="36" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="111" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:6">
       <c r="D111" s="35" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="112" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:6">
       <c r="D112" s="35" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5">
       <c r="D113" s="34" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5">
       <c r="D114" s="35" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5">
       <c r="D115" s="35" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5">
       <c r="D116" s="35" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5">
       <c r="D117" s="31" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5">
       <c r="D118" s="31" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5">
       <c r="D119" s="35" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5">
       <c r="D120" s="50" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5">
       <c r="D121" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" ht="19.5" thickBot="1">
       <c r="E122" s="49" t="s">
         <v>2375</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" ht="20.25" thickTop="1" thickBot="1">
       <c r="A123" s="52" t="s">
         <v>254</v>
       </c>
@@ -20172,7 +20178,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="15.75" thickTop="1">
       <c r="A124" s="38" t="s">
         <v>32</v>
       </c>
@@ -20189,7 +20195,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5">
       <c r="A125" s="3" t="s">
         <v>172</v>
       </c>
@@ -20206,7 +20212,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5">
       <c r="A126" s="3" t="s">
         <v>188</v>
       </c>
@@ -20223,7 +20229,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5">
       <c r="A127" s="3" t="s">
         <v>103</v>
       </c>
@@ -20240,7 +20246,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5">
       <c r="A128" s="3" t="s">
         <v>246</v>
       </c>
@@ -20257,7 +20263,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5">
       <c r="A129" s="3" t="s">
         <v>199</v>
       </c>
@@ -20274,7 +20280,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5">
       <c r="A130" s="3" t="s">
         <v>255</v>
       </c>
@@ -20291,7 +20297,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5">
       <c r="A131" s="3" t="s">
         <v>162</v>
       </c>
@@ -20308,7 +20314,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5">
       <c r="A132" s="3" t="s">
         <v>163</v>
       </c>
@@ -20325,7 +20331,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5">
       <c r="A133" s="3" t="s">
         <v>182</v>
       </c>
@@ -20342,7 +20348,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5">
       <c r="A134" s="3" t="s">
         <v>201</v>
       </c>
@@ -20359,7 +20365,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5">
       <c r="A135" s="3" t="s">
         <v>183</v>
       </c>
@@ -20376,7 +20382,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5">
       <c r="A136" s="3" t="s">
         <v>187</v>
       </c>
@@ -20393,7 +20399,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5">
       <c r="A137" s="3" t="s">
         <v>135</v>
       </c>
@@ -20410,7 +20416,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5">
       <c r="A138" s="3" t="s">
         <v>146</v>
       </c>
@@ -20427,7 +20433,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5">
       <c r="A139" s="3" t="s">
         <v>192</v>
       </c>
@@ -20444,7 +20450,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5">
       <c r="A140" s="3" t="s">
         <v>169</v>
       </c>
@@ -20461,7 +20467,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5">
       <c r="B141" s="41" t="s">
         <v>199</v>
       </c>
@@ -20475,7 +20481,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5">
       <c r="B142" s="41" t="s">
         <v>170</v>
       </c>
@@ -20489,7 +20495,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5">
       <c r="B143" s="53" t="s">
         <v>136</v>
       </c>
@@ -20503,7 +20509,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5">
       <c r="B144" s="41" t="s">
         <v>160</v>
       </c>
@@ -20514,7 +20520,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:4">
       <c r="B145" s="41" t="s">
         <v>174</v>
       </c>
@@ -20525,7 +20531,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:4">
       <c r="B146" s="31" t="s">
         <v>258</v>
       </c>
@@ -20536,7 +20542,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:4">
       <c r="B147" s="53" t="s">
         <v>146</v>
       </c>
@@ -20547,7 +20553,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:4">
       <c r="B148" s="41" t="s">
         <v>169</v>
       </c>
@@ -20558,7 +20564,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:4">
       <c r="B149" s="53" t="s">
         <v>229</v>
       </c>
@@ -20569,7 +20575,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:4">
       <c r="C150" s="41" t="s">
         <v>183</v>
       </c>
@@ -20577,7 +20583,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:4">
       <c r="B151" s="41" t="s">
         <v>2353</v>
       </c>
@@ -20588,7 +20594,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:4">
       <c r="B152" s="41" t="s">
         <v>172</v>
       </c>
@@ -20599,7 +20605,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:4">
       <c r="B153" s="41" t="s">
         <v>55</v>
       </c>
@@ -20610,7 +20616,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:4">
       <c r="B154" s="41" t="s">
         <v>151</v>
       </c>
@@ -20621,7 +20627,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:4">
       <c r="B155" s="41" t="s">
         <v>217</v>
       </c>
@@ -20632,7 +20638,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:4">
       <c r="B156" s="41" t="s">
         <v>142</v>
       </c>
@@ -20643,7 +20649,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:4">
       <c r="B157" s="41" t="s">
         <v>256</v>
       </c>
@@ -20654,7 +20660,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:4">
       <c r="B158" s="41" t="s">
         <v>245</v>
       </c>
@@ -20665,97 +20671,97 @@
         <v>89</v>
       </c>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:4">
       <c r="B159" s="41" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:4">
       <c r="B160" s="41" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2">
       <c r="B161" s="41" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2">
       <c r="B162" s="41" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2">
       <c r="B163" s="41" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2">
       <c r="B164" s="41" t="s">
         <v>2370</v>
       </c>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2">
       <c r="B165" s="41" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2">
       <c r="B166" s="41" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2">
       <c r="B167" s="41" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2">
       <c r="B168" s="41" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2">
       <c r="B169" s="41" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2">
       <c r="B170" s="41" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2">
       <c r="B171" s="41" t="s">
         <v>2362</v>
       </c>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2">
       <c r="B172" s="41" t="s">
         <v>2364</v>
       </c>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2">
       <c r="B173" s="41" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2">
       <c r="B174" s="41" t="s">
         <v>2372</v>
       </c>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2">
       <c r="B175" s="41" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2">
       <c r="B176" s="41" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6">
       <c r="A177" s="66" t="s">
         <v>2378</v>
       </c>
@@ -20763,7 +20769,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6">
       <c r="A178" s="51" t="s">
         <v>211</v>
       </c>
@@ -20771,7 +20777,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6">
       <c r="A179" s="51" t="s">
         <v>2376</v>
       </c>
@@ -20779,7 +20785,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6">
       <c r="A180" s="64" t="s">
         <v>2363</v>
       </c>
@@ -20787,7 +20793,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6">
       <c r="A181" s="64" t="s">
         <v>2372</v>
       </c>
@@ -20795,7 +20801,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6">
       <c r="A182" s="51" t="s">
         <v>64</v>
       </c>
@@ -20803,17 +20809,17 @@
         <v>205</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6">
       <c r="B183" s="41" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6">
       <c r="B184" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" ht="19.5" thickBot="1">
       <c r="A186" s="49" t="s">
         <v>2379</v>
       </c>
@@ -20833,7 +20839,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" ht="15.75" thickTop="1">
       <c r="A187" s="48" t="s">
         <v>32</v>
       </c>
@@ -20853,7 +20859,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6">
       <c r="A188" s="51" t="s">
         <v>2353</v>
       </c>
@@ -20873,7 +20879,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6">
       <c r="A189" s="64" t="s">
         <v>172</v>
       </c>
@@ -20891,7 +20897,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6">
       <c r="A190" s="51" t="s">
         <v>133</v>
       </c>
@@ -20909,7 +20915,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6">
       <c r="A191" s="51" t="s">
         <v>57</v>
       </c>
@@ -20927,7 +20933,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6">
       <c r="A192" s="51" t="s">
         <v>132</v>
       </c>
@@ -20945,7 +20951,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6">
       <c r="A193" s="51" t="s">
         <v>184</v>
       </c>
@@ -20963,7 +20969,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6">
       <c r="A194" s="51" t="s">
         <v>188</v>
       </c>
@@ -20981,7 +20987,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6">
       <c r="A195" s="65" t="s">
         <v>218</v>
       </c>
@@ -20999,7 +21005,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6">
       <c r="A196" s="51" t="s">
         <v>103</v>
       </c>
@@ -21017,7 +21023,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6">
       <c r="A197" s="51" t="s">
         <v>211</v>
       </c>
@@ -21035,7 +21041,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6">
       <c r="A198" s="51" t="s">
         <v>2358</v>
       </c>
@@ -21053,7 +21059,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6">
       <c r="A199" s="51" t="s">
         <v>2376</v>
       </c>
@@ -21071,7 +21077,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6">
       <c r="A200" s="51" t="s">
         <v>44</v>
       </c>
@@ -21089,7 +21095,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6">
       <c r="A201" s="51" t="s">
         <v>2362</v>
       </c>
@@ -21107,7 +21113,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" ht="19.5" thickBot="1">
       <c r="A202" s="51" t="s">
         <v>225</v>
       </c>
@@ -21127,7 +21133,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" ht="15.75" thickTop="1">
       <c r="A203" s="51" t="s">
         <v>227</v>
       </c>
@@ -21147,7 +21153,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6">
       <c r="A204" s="51" t="s">
         <v>247</v>
       </c>
@@ -21167,7 +21173,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6">
       <c r="A205" s="64" t="s">
         <v>2363</v>
       </c>
@@ -21185,7 +21191,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6">
       <c r="A206" s="51" t="s">
         <v>136</v>
       </c>
@@ -21203,7 +21209,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" ht="15.75" thickBot="1">
       <c r="A207" s="64" t="s">
         <v>2372</v>
       </c>
@@ -21221,7 +21227,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" ht="15.75" thickTop="1">
       <c r="A208" s="51" t="s">
         <v>150</v>
       </c>
@@ -21239,7 +21245,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6">
       <c r="A209" s="51" t="s">
         <v>174</v>
       </c>
@@ -21254,7 +21260,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6">
       <c r="A210" s="65" t="s">
         <v>201</v>
       </c>
@@ -21269,7 +21275,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6">
       <c r="A211" s="51" t="s">
         <v>64</v>
       </c>
@@ -21284,7 +21290,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" ht="15.75" thickBot="1">
       <c r="A212" s="51" t="s">
         <v>183</v>
       </c>
@@ -21299,7 +21305,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" ht="15.75" thickTop="1">
       <c r="A213" s="51" t="s">
         <v>156</v>
       </c>
@@ -21314,7 +21320,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6">
       <c r="A214" s="51" t="s">
         <v>146</v>
       </c>
@@ -21329,7 +21335,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6">
       <c r="D215" s="51" t="s">
         <v>174</v>
       </c>
@@ -21340,7 +21346,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6">
       <c r="D216" s="51" t="s">
         <v>64</v>
       </c>
@@ -21351,7 +21357,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6">
       <c r="D217" s="51" t="s">
         <v>187</v>
       </c>
@@ -21362,7 +21368,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6">
       <c r="D218" s="51" t="s">
         <v>135</v>
       </c>
@@ -21373,38 +21379,38 @@
         <v>192</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6">
       <c r="D219" s="51" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6">
       <c r="D220" s="51" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6">
       <c r="D221" s="51" t="s">
         <v>2368</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6">
       <c r="D222" s="51" t="s">
         <v>146</v>
       </c>
       <c r="F222" s="51"/>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6">
       <c r="D223" s="51" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6">
       <c r="D224" s="51" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:6" ht="19.5" thickBot="1">
       <c r="A226" s="49" t="s">
         <v>2523</v>
       </c>
@@ -21424,7 +21430,7 @@
         <v>2715</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" ht="15.75" thickTop="1">
       <c r="A227" s="48" t="s">
         <v>32</v>
       </c>
@@ -21444,7 +21450,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6">
       <c r="A228" s="51" t="s">
         <v>172</v>
       </c>
@@ -21464,7 +21470,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6">
       <c r="A229" s="51" t="s">
         <v>55</v>
       </c>
@@ -21484,7 +21490,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6">
       <c r="A230" s="51" t="s">
         <v>133</v>
       </c>
@@ -21504,7 +21510,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6">
       <c r="A231" s="51" t="s">
         <v>148</v>
       </c>
@@ -21524,7 +21530,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6">
       <c r="A232" s="51" t="s">
         <v>217</v>
       </c>
@@ -21544,7 +21550,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6">
       <c r="A233" s="51" t="s">
         <v>2412</v>
       </c>
@@ -21564,7 +21570,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6">
       <c r="A234" s="51" t="s">
         <v>57</v>
       </c>
@@ -21584,7 +21590,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6">
       <c r="A235" s="51" t="s">
         <v>218</v>
       </c>
@@ -21604,7 +21610,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6">
       <c r="A236" s="51" t="s">
         <v>103</v>
       </c>
@@ -21624,7 +21630,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6">
       <c r="A237" s="51" t="s">
         <v>199</v>
       </c>
@@ -21644,7 +21650,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6">
       <c r="A238" s="51" t="s">
         <v>2356</v>
       </c>
@@ -21664,7 +21670,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6">
       <c r="A239" s="51" t="s">
         <v>181</v>
       </c>
@@ -21684,7 +21690,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6">
       <c r="A240" s="51" t="s">
         <v>162</v>
       </c>
@@ -21704,7 +21710,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6">
       <c r="A241" s="51" t="s">
         <v>130</v>
       </c>
@@ -21724,7 +21730,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6">
       <c r="A242" s="51" t="s">
         <v>163</v>
       </c>
@@ -21744,7 +21750,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6">
       <c r="A243" s="51" t="s">
         <v>2522</v>
       </c>
@@ -21764,7 +21770,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6">
       <c r="A244" s="51" t="s">
         <v>200</v>
       </c>
@@ -21784,7 +21790,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6">
       <c r="A245" s="51" t="s">
         <v>44</v>
       </c>
@@ -21804,7 +21810,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6">
       <c r="A246" s="51" t="s">
         <v>2363</v>
       </c>
@@ -21824,7 +21830,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6">
       <c r="A247" s="51" t="s">
         <v>136</v>
       </c>
@@ -21844,7 +21850,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6">
       <c r="A248" s="51" t="s">
         <v>80</v>
       </c>
@@ -21864,7 +21870,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6">
       <c r="A249" s="51" t="s">
         <v>174</v>
       </c>
@@ -21881,7 +21887,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6">
       <c r="A250" s="51" t="s">
         <v>64</v>
       </c>
@@ -21898,7 +21904,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6">
       <c r="A251" s="51" t="s">
         <v>183</v>
       </c>
@@ -21915,7 +21921,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6">
       <c r="A252" s="51" t="s">
         <v>187</v>
       </c>
@@ -21932,7 +21938,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6">
       <c r="A253" s="51" t="s">
         <v>100</v>
       </c>
@@ -21949,7 +21955,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6">
       <c r="A254" s="51" t="s">
         <v>2371</v>
       </c>
@@ -21960,7 +21966,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6">
       <c r="A255" s="51" t="s">
         <v>146</v>
       </c>
@@ -21971,7 +21977,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6">
       <c r="A256" s="51" t="s">
         <v>186</v>
       </c>
@@ -21982,27 +21988,27 @@
         <v>186</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6">
       <c r="B257" s="51" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6">
       <c r="B258" s="51" t="s">
         <v>2371</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6">
       <c r="B259" s="51" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6">
       <c r="B260" s="51" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:6" ht="19.5" thickBot="1">
       <c r="A263" s="49" t="s">
         <v>2716</v>
       </c>
@@ -22022,7 +22028,7 @@
         <v>2765</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" ht="15.75" thickTop="1">
       <c r="A264" s="48" t="s">
         <v>32</v>
       </c>
@@ -22042,7 +22048,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6">
       <c r="A265" s="70" t="s">
         <v>252</v>
       </c>
@@ -22062,7 +22068,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6">
       <c r="A266" s="70" t="s">
         <v>223</v>
       </c>
@@ -22082,7 +22088,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6">
       <c r="A267" s="70" t="s">
         <v>57</v>
       </c>
@@ -22102,7 +22108,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6">
       <c r="A268" s="70" t="s">
         <v>179</v>
       </c>
@@ -22122,7 +22128,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6">
       <c r="A269" s="70" t="s">
         <v>206</v>
       </c>
@@ -22142,7 +22148,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6">
       <c r="A270" s="70" t="s">
         <v>184</v>
       </c>
@@ -22162,7 +22168,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6">
       <c r="A271" s="70" t="s">
         <v>188</v>
       </c>
@@ -22182,7 +22188,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6">
       <c r="A272" s="67" t="s">
         <v>103</v>
       </c>
@@ -22202,7 +22208,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6">
       <c r="A273" s="70" t="s">
         <v>138</v>
       </c>
@@ -22222,7 +22228,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6">
       <c r="A274" s="70" t="s">
         <v>162</v>
       </c>
@@ -22242,7 +22248,7 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6">
       <c r="A275" s="70" t="s">
         <v>2360</v>
       </c>
@@ -22262,7 +22268,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6">
       <c r="A276" s="70" t="s">
         <v>44</v>
       </c>
@@ -22282,7 +22288,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6">
       <c r="A277" s="70" t="s">
         <v>2366</v>
       </c>
@@ -22302,7 +22308,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6">
       <c r="A278" s="70" t="s">
         <v>174</v>
       </c>
@@ -22322,7 +22328,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6">
       <c r="A279" s="70" t="s">
         <v>201</v>
       </c>
@@ -22342,7 +22348,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6">
       <c r="A280" s="70" t="s">
         <v>183</v>
       </c>
@@ -22362,7 +22368,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6">
       <c r="A281" s="70" t="s">
         <v>2371</v>
       </c>
@@ -22379,7 +22385,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6">
       <c r="A282" s="70" t="s">
         <v>186</v>
       </c>
@@ -22396,7 +22402,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6">
       <c r="A283" s="70" t="s">
         <v>192</v>
       </c>
@@ -22413,7 +22419,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6">
       <c r="A284" s="67" t="s">
         <v>229</v>
       </c>
@@ -22430,7 +22436,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6">
       <c r="A285" s="71" t="s">
         <v>2548</v>
       </c>
@@ -22447,7 +22453,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6">
       <c r="C286" s="51" t="s">
         <v>2372</v>
       </c>
@@ -22458,7 +22464,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6">
       <c r="C287" s="51" t="s">
         <v>2665</v>
       </c>
@@ -22469,7 +22475,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6">
       <c r="C288" s="51" t="s">
         <v>248</v>
       </c>
@@ -22480,7 +22486,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6">
       <c r="C289" s="51" t="s">
         <v>64</v>
       </c>
@@ -22491,7 +22497,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6">
       <c r="C290" s="51" t="s">
         <v>183</v>
       </c>
@@ -22502,7 +22508,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6">
       <c r="C291" s="51" t="s">
         <v>2367</v>
       </c>
@@ -22513,7 +22519,7 @@
         <v>2687</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6">
       <c r="C292" s="51" t="s">
         <v>187</v>
       </c>
@@ -22524,7 +22530,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6">
       <c r="C293" s="51" t="s">
         <v>2720</v>
       </c>
@@ -22535,7 +22541,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6">
       <c r="C294" s="51" t="s">
         <v>232</v>
       </c>
@@ -22546,7 +22552,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6">
       <c r="C295" s="51" t="s">
         <v>185</v>
       </c>
@@ -22557,7 +22563,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6">
       <c r="D296" s="51" t="s">
         <v>193</v>
       </c>
@@ -22565,7 +22571,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6">
       <c r="D297" s="51" t="s">
         <v>2371</v>
       </c>
@@ -22573,7 +22579,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6">
       <c r="D298" s="51" t="s">
         <v>2369</v>
       </c>
@@ -22581,7 +22587,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6">
       <c r="D299" s="6" t="s">
         <v>232</v>
       </c>
@@ -22589,7 +22595,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6">
       <c r="D300" s="6" t="s">
         <v>185</v>
       </c>
@@ -22597,7 +22603,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6">
       <c r="D301" s="6" t="s">
         <v>192</v>
       </c>
@@ -22605,7 +22611,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" ht="15.75" thickBot="1">
       <c r="A303" s="68" t="s">
         <v>2766</v>
       </c>
@@ -22625,7 +22631,7 @@
         <v>3060</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" ht="15.75" thickTop="1">
       <c r="A304" s="48" t="s">
         <v>32</v>
       </c>
@@ -22645,7 +22651,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6">
       <c r="A305" s="51" t="s">
         <v>172</v>
       </c>
@@ -22665,7 +22671,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6">
       <c r="A306" s="6" t="s">
         <v>133</v>
       </c>
@@ -22685,7 +22691,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6">
       <c r="A307" s="51" t="s">
         <v>2412</v>
       </c>
@@ -22705,7 +22711,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6">
       <c r="A308" s="6" t="s">
         <v>245</v>
       </c>
@@ -22725,7 +22731,7 @@
         <v>3061</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6">
       <c r="A309" s="51" t="s">
         <v>57</v>
       </c>
@@ -22745,7 +22751,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6">
       <c r="A310" s="51" t="s">
         <v>179</v>
       </c>
@@ -22765,7 +22771,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6">
       <c r="A311" s="51" t="s">
         <v>132</v>
       </c>
@@ -22785,7 +22791,7 @@
         <v>2559</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6">
       <c r="A312" s="67" t="s">
         <v>2548</v>
       </c>
@@ -22805,7 +22811,7 @@
         <v>3062</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6">
       <c r="A313" s="51" t="s">
         <v>184</v>
       </c>
@@ -22825,7 +22831,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6">
       <c r="A314" s="6" t="s">
         <v>2559</v>
       </c>
@@ -22845,7 +22851,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6">
       <c r="A315" s="51" t="s">
         <v>2354</v>
       </c>
@@ -22865,7 +22871,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6">
       <c r="A316" s="51" t="s">
         <v>66</v>
       </c>
@@ -22885,7 +22891,7 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6">
       <c r="A317" s="6" t="s">
         <v>99</v>
       </c>
@@ -22905,7 +22911,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6">
       <c r="A318" s="67" t="s">
         <v>208</v>
       </c>
@@ -22925,7 +22931,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6">
       <c r="A319" s="51" t="s">
         <v>103</v>
       </c>
@@ -22945,7 +22951,7 @@
         <v>3063</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6">
       <c r="A320" s="51" t="s">
         <v>2397</v>
       </c>
@@ -22965,7 +22971,7 @@
         <v>2949</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6">
       <c r="A321" s="51" t="s">
         <v>2598</v>
       </c>
@@ -22985,7 +22991,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6">
       <c r="A322" s="67" t="s">
         <v>2357</v>
       </c>
@@ -23005,7 +23011,7 @@
         <v>2687</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6">
       <c r="A323" s="6" t="s">
         <v>162</v>
       </c>
@@ -23025,7 +23031,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6">
       <c r="A324" s="6" t="s">
         <v>130</v>
       </c>
@@ -23045,7 +23051,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6">
       <c r="A325" s="51" t="s">
         <v>163</v>
       </c>
@@ -23065,7 +23071,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6">
       <c r="A326" s="51" t="s">
         <v>200</v>
       </c>
@@ -23085,7 +23091,7 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6">
       <c r="A327" s="51" t="s">
         <v>44</v>
       </c>
@@ -23102,7 +23108,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6">
       <c r="A328" s="6" t="s">
         <v>225</v>
       </c>
@@ -23113,7 +23119,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6">
       <c r="A329" s="51" t="s">
         <v>136</v>
       </c>
@@ -23124,7 +23130,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6">
       <c r="A330" s="51" t="s">
         <v>80</v>
       </c>
@@ -23135,7 +23141,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6">
       <c r="A331" s="51" t="s">
         <v>174</v>
       </c>
@@ -23146,7 +23152,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6">
       <c r="A332" s="67" t="s">
         <v>248</v>
       </c>
@@ -23157,7 +23163,7 @@
         <v>2687</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6">
       <c r="A333" s="6" t="s">
         <v>2529</v>
       </c>
@@ -23168,7 +23174,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6">
       <c r="A334" s="51" t="s">
         <v>201</v>
       </c>
@@ -23179,7 +23185,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6">
       <c r="A335" s="51" t="s">
         <v>64</v>
       </c>
@@ -23190,7 +23196,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6">
       <c r="A336" s="6" t="s">
         <v>183</v>
       </c>
@@ -23201,7 +23207,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5">
       <c r="A337" s="6" t="s">
         <v>187</v>
       </c>
@@ -23212,7 +23218,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5">
       <c r="A338" s="6" t="s">
         <v>2371</v>
       </c>
@@ -23223,7 +23229,7 @@
         <v>3030</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5">
       <c r="A339" s="51" t="s">
         <v>146</v>
       </c>
@@ -23234,7 +23240,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5">
       <c r="A340" s="51" t="s">
         <v>232</v>
       </c>
@@ -23245,7 +23251,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5">
       <c r="A341" s="6" t="s">
         <v>192</v>
       </c>
@@ -23913,7 +23919,7 @@
       <selection activeCell="F296" sqref="F296"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="33.28515625" style="114" customWidth="1"/>
     <col min="2" max="2" width="59.7109375" style="63" customWidth="1"/>
@@ -23930,7 +23936,7 @@
     <col min="14" max="16384" width="9.140625" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="73" t="s">
         <v>260</v>
       </c>
@@ -23971,7 +23977,7 @@
         <v>2792</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="55" t="s">
         <v>269</v>
       </c>
@@ -23994,7 +24000,7 @@
       </c>
       <c r="M2" s="93"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="55" t="s">
         <v>270</v>
       </c>
@@ -24017,7 +24023,7 @@
       </c>
       <c r="M3" s="93"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="55" t="s">
         <v>271</v>
       </c>
@@ -24040,7 +24046,7 @@
       </c>
       <c r="M4" s="93"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="55" t="s">
         <v>272</v>
       </c>
@@ -24063,7 +24069,7 @@
       </c>
       <c r="M5" s="93"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="55" t="s">
         <v>2803</v>
       </c>
@@ -24090,7 +24096,7 @@
       </c>
       <c r="M6" s="93"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" s="55" t="s">
         <v>2804</v>
       </c>
@@ -24117,7 +24123,7 @@
       </c>
       <c r="M7" s="93"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="55" t="s">
         <v>144</v>
       </c>
@@ -24156,7 +24162,7 @@
       </c>
       <c r="M8" s="93"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="55" t="s">
         <v>2805</v>
       </c>
@@ -24195,7 +24201,7 @@
       </c>
       <c r="M9" s="93"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="55" t="s">
         <v>252</v>
       </c>
@@ -24234,7 +24240,7 @@
       </c>
       <c r="M10" s="93"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" s="55" t="s">
         <v>3064</v>
       </c>
@@ -24267,7 +24273,7 @@
       </c>
       <c r="M11" s="93"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" s="55" t="s">
         <v>3069</v>
       </c>
@@ -24306,7 +24312,7 @@
       </c>
       <c r="M12" s="93"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="55" t="s">
         <v>2806</v>
       </c>
@@ -24331,7 +24337,7 @@
       </c>
       <c r="M13" s="93"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" s="55" t="s">
         <v>2353</v>
       </c>
@@ -24370,7 +24376,7 @@
       </c>
       <c r="M14" s="93"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" s="55" t="s">
         <v>149</v>
       </c>
@@ -24409,7 +24415,7 @@
       </c>
       <c r="M15" s="93"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" s="55" t="s">
         <v>2807</v>
       </c>
@@ -24442,7 +24448,7 @@
       </c>
       <c r="M16" s="93"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" s="55" t="s">
         <v>2808</v>
       </c>
@@ -24481,7 +24487,7 @@
       </c>
       <c r="M17" s="93"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" s="55" t="s">
         <v>3071</v>
       </c>
@@ -24520,7 +24526,7 @@
       </c>
       <c r="M18" s="93"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" s="55" t="s">
         <v>2809</v>
       </c>
@@ -24555,7 +24561,7 @@
       </c>
       <c r="M19" s="93"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" s="55" t="s">
         <v>2810</v>
       </c>
@@ -24594,7 +24600,7 @@
       </c>
       <c r="M20" s="93"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" s="55" t="s">
         <v>172</v>
       </c>
@@ -24633,7 +24639,7 @@
       </c>
       <c r="M21" s="93"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" s="55" t="s">
         <v>2811</v>
       </c>
@@ -24672,7 +24678,7 @@
       </c>
       <c r="M22" s="93"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" s="55" t="s">
         <v>2812</v>
       </c>
@@ -24705,7 +24711,7 @@
       </c>
       <c r="M23" s="93"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" s="55" t="s">
         <v>55</v>
       </c>
@@ -24744,7 +24750,7 @@
       </c>
       <c r="M24" s="93"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" s="55" t="s">
         <v>2813</v>
       </c>
@@ -24771,7 +24777,7 @@
       </c>
       <c r="M25" s="93"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" s="55" t="s">
         <v>141</v>
       </c>
@@ -24810,7 +24816,7 @@
       </c>
       <c r="M26" s="93"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" s="55" t="s">
         <v>2814</v>
       </c>
@@ -24849,7 +24855,7 @@
       </c>
       <c r="M27" s="93"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" s="55" t="s">
         <v>2815</v>
       </c>
@@ -24882,7 +24888,7 @@
       </c>
       <c r="M28" s="93"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13">
       <c r="A29" s="55" t="s">
         <v>151</v>
       </c>
@@ -24921,7 +24927,7 @@
       </c>
       <c r="M29" s="93"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="A30" s="55" t="s">
         <v>133</v>
       </c>
@@ -24960,7 +24966,7 @@
       </c>
       <c r="M30" s="93"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" s="55" t="s">
         <v>2816</v>
       </c>
@@ -24999,7 +25005,7 @@
       </c>
       <c r="M31" s="93"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" s="55" t="s">
         <v>2817</v>
       </c>
@@ -25032,7 +25038,7 @@
       </c>
       <c r="M32" s="93"/>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32">
       <c r="A33" s="55" t="s">
         <v>2818</v>
       </c>
@@ -25065,7 +25071,7 @@
       </c>
       <c r="M33" s="93"/>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32">
       <c r="A34" s="55" t="s">
         <v>2819</v>
       </c>
@@ -25105,7 +25111,7 @@
       <c r="S34" s="89"/>
       <c r="T34" s="89"/>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32">
       <c r="A35" s="55" t="s">
         <v>2820</v>
       </c>
@@ -25144,7 +25150,7 @@
       </c>
       <c r="M35" s="93"/>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32">
       <c r="A36" s="55" t="s">
         <v>2821</v>
       </c>
@@ -25177,7 +25183,7 @@
       </c>
       <c r="M36" s="93"/>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32">
       <c r="A37" s="55" t="s">
         <v>2822</v>
       </c>
@@ -25216,7 +25222,7 @@
       </c>
       <c r="M37" s="93"/>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32">
       <c r="A38" s="55" t="s">
         <v>2823</v>
       </c>
@@ -25253,7 +25259,7 @@
       </c>
       <c r="M38" s="93"/>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32">
       <c r="A39" s="55" t="s">
         <v>2824</v>
       </c>
@@ -25292,7 +25298,7 @@
       </c>
       <c r="M39" s="93"/>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32">
       <c r="A40" s="55" t="s">
         <v>154</v>
       </c>
@@ -25331,7 +25337,7 @@
       </c>
       <c r="M40" s="93"/>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32">
       <c r="A41" s="55" t="s">
         <v>148</v>
       </c>
@@ -25370,7 +25376,7 @@
       </c>
       <c r="M41" s="93"/>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:32">
       <c r="A42" s="55" t="s">
         <v>2825</v>
       </c>
@@ -25403,7 +25409,7 @@
       </c>
       <c r="M42" s="93"/>
     </row>
-    <row r="43" spans="1:32" s="67" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" s="67" customFormat="1" ht="15">
       <c r="A43" s="55" t="s">
         <v>134</v>
       </c>
@@ -25443,7 +25449,7 @@
       <c r="M43" s="123"/>
       <c r="AF43" s="63"/>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:32">
       <c r="A44" s="55" t="s">
         <v>217</v>
       </c>
@@ -25482,7 +25488,7 @@
       </c>
       <c r="M44" s="93"/>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:32">
       <c r="A45" s="55" t="s">
         <v>2826</v>
       </c>
@@ -25515,7 +25521,7 @@
       </c>
       <c r="M45" s="93"/>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:32">
       <c r="A46" s="55" t="s">
         <v>3061</v>
       </c>
@@ -25554,7 +25560,7 @@
       </c>
       <c r="M46" s="93"/>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:32">
       <c r="A47" s="55" t="s">
         <v>2827</v>
       </c>
@@ -25593,7 +25599,7 @@
       </c>
       <c r="M47" s="93"/>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:32">
       <c r="A48" s="55" t="s">
         <v>223</v>
       </c>
@@ -25632,7 +25638,7 @@
       </c>
       <c r="M48" s="93"/>
     </row>
-    <row r="49" spans="1:16375" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16375">
       <c r="A49" s="55" t="s">
         <v>2828</v>
       </c>
@@ -25663,7 +25669,7 @@
       </c>
       <c r="M49" s="93"/>
     </row>
-    <row r="50" spans="1:16375" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16375">
       <c r="A50" s="55" t="s">
         <v>2829</v>
       </c>
@@ -25696,7 +25702,7 @@
       </c>
       <c r="M50" s="93"/>
     </row>
-    <row r="51" spans="1:16375" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16375">
       <c r="A51" s="55" t="s">
         <v>2830</v>
       </c>
@@ -25729,7 +25735,7 @@
       </c>
       <c r="M51" s="93"/>
     </row>
-    <row r="52" spans="1:16375" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16375">
       <c r="A52" s="55" t="s">
         <v>2831</v>
       </c>
@@ -25762,7 +25768,7 @@
       </c>
       <c r="M52" s="93"/>
     </row>
-    <row r="53" spans="1:16375" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16375">
       <c r="A53" s="55" t="s">
         <v>2832</v>
       </c>
@@ -25789,7 +25795,7 @@
       </c>
       <c r="M53" s="93"/>
     </row>
-    <row r="54" spans="1:16375" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16375">
       <c r="A54" s="55" t="s">
         <v>2833</v>
       </c>
@@ -25828,7 +25834,7 @@
       </c>
       <c r="M54" s="93"/>
     </row>
-    <row r="55" spans="1:16375" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16375">
       <c r="A55" s="55" t="s">
         <v>2834</v>
       </c>
@@ -25861,7 +25867,7 @@
       </c>
       <c r="M55" s="93"/>
     </row>
-    <row r="56" spans="1:16375" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16375">
       <c r="A56" s="55" t="s">
         <v>2835</v>
       </c>
@@ -25896,7 +25902,7 @@
       </c>
       <c r="M56" s="93"/>
     </row>
-    <row r="57" spans="1:16375" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16375">
       <c r="A57" s="55" t="s">
         <v>2836</v>
       </c>
@@ -42296,7 +42302,7 @@
       <c r="XET57" s="90"/>
       <c r="XEU57" s="90"/>
     </row>
-    <row r="58" spans="1:16375" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16375">
       <c r="A58" s="55" t="s">
         <v>2837</v>
       </c>
@@ -42335,7 +42341,7 @@
       </c>
       <c r="M58" s="93"/>
     </row>
-    <row r="59" spans="1:16375" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16375">
       <c r="A59" s="55" t="s">
         <v>2838</v>
       </c>
@@ -42374,7 +42380,7 @@
       </c>
       <c r="M59" s="93"/>
     </row>
-    <row r="60" spans="1:16375" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16375">
       <c r="A60" s="55" t="s">
         <v>2839</v>
       </c>
@@ -42407,7 +42413,7 @@
       </c>
       <c r="M60" s="93"/>
     </row>
-    <row r="61" spans="1:16375" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16375">
       <c r="A61" s="55" t="s">
         <v>2840</v>
       </c>
@@ -42446,7 +42452,7 @@
       </c>
       <c r="M61" s="93"/>
     </row>
-    <row r="62" spans="1:16375" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16375">
       <c r="A62" s="55" t="s">
         <v>2841</v>
       </c>
@@ -42485,7 +42491,7 @@
       </c>
       <c r="M62" s="93"/>
     </row>
-    <row r="63" spans="1:16375" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16375">
       <c r="A63" s="55" t="s">
         <v>2842</v>
       </c>
@@ -42524,7 +42530,7 @@
       </c>
       <c r="M63" s="93"/>
     </row>
-    <row r="64" spans="1:16375" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16375">
       <c r="A64" s="55" t="s">
         <v>197</v>
       </c>
@@ -42563,7 +42569,7 @@
       </c>
       <c r="M64" s="93"/>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:32">
       <c r="A65" s="55" t="s">
         <v>2412</v>
       </c>
@@ -42602,7 +42608,7 @@
       </c>
       <c r="M65" s="93"/>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:32">
       <c r="A66" s="55" t="s">
         <v>3086</v>
       </c>
@@ -42635,7 +42641,7 @@
       </c>
       <c r="M66" s="93"/>
     </row>
-    <row r="67" spans="1:32" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:32" ht="25.5">
       <c r="A67" s="55" t="s">
         <v>159</v>
       </c>
@@ -42668,7 +42674,7 @@
       </c>
       <c r="M67" s="93"/>
     </row>
-    <row r="68" spans="1:32" s="96" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:32" s="96" customFormat="1">
       <c r="A68" s="55" t="s">
         <v>2843</v>
       </c>
@@ -42708,7 +42714,7 @@
       <c r="M68" s="93"/>
       <c r="AF68" s="63"/>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:32">
       <c r="A69" s="55" t="s">
         <v>2844</v>
       </c>
@@ -42741,7 +42747,7 @@
       </c>
       <c r="M69" s="93"/>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:32">
       <c r="A70" s="55" t="s">
         <v>2845</v>
       </c>
@@ -42764,7 +42770,7 @@
       </c>
       <c r="M70" s="93"/>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:32">
       <c r="A71" s="55" t="s">
         <v>2846</v>
       </c>
@@ -42803,7 +42809,7 @@
       </c>
       <c r="M71" s="93"/>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:32">
       <c r="A72" s="55" t="s">
         <v>67</v>
       </c>
@@ -42842,7 +42848,7 @@
       </c>
       <c r="M72" s="93"/>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:32">
       <c r="A73" s="55" t="s">
         <v>2847</v>
       </c>
@@ -42869,7 +42875,7 @@
       </c>
       <c r="M73" s="93"/>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:32">
       <c r="A74" s="55" t="s">
         <v>142</v>
       </c>
@@ -42908,7 +42914,7 @@
       </c>
       <c r="M74" s="93"/>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:32">
       <c r="A75" s="55" t="s">
         <v>173</v>
       </c>
@@ -42947,7 +42953,7 @@
       </c>
       <c r="M75" s="93"/>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:32">
       <c r="A76" s="55" t="s">
         <v>2848</v>
       </c>
@@ -42980,7 +42986,7 @@
       </c>
       <c r="M76" s="93"/>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:32">
       <c r="A77" s="55" t="s">
         <v>256</v>
       </c>
@@ -43019,7 +43025,7 @@
       </c>
       <c r="M77" s="93"/>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:32">
       <c r="A78" s="55" t="s">
         <v>207</v>
       </c>
@@ -43058,7 +43064,7 @@
       </c>
       <c r="M78" s="93"/>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:32">
       <c r="A79" s="55" t="s">
         <v>2778</v>
       </c>
@@ -43097,7 +43103,7 @@
       </c>
       <c r="M79" s="93"/>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:32">
       <c r="A80" s="55" t="s">
         <v>245</v>
       </c>
@@ -43136,7 +43142,7 @@
       </c>
       <c r="M80" s="93"/>
     </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:32">
       <c r="A81" s="55" t="s">
         <v>147</v>
       </c>
@@ -43173,7 +43179,7 @@
       </c>
       <c r="M81" s="93"/>
     </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:32">
       <c r="A82" s="55" t="s">
         <v>57</v>
       </c>
@@ -43212,7 +43218,7 @@
       </c>
       <c r="M82" s="93"/>
     </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:32">
       <c r="A83" s="55" t="s">
         <v>179</v>
       </c>
@@ -43251,7 +43257,7 @@
       </c>
       <c r="M83" s="93"/>
     </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:32">
       <c r="A84" s="55" t="s">
         <v>2849</v>
       </c>
@@ -43290,7 +43296,7 @@
       </c>
       <c r="M84" s="93"/>
     </row>
-    <row r="85" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:32" ht="15">
       <c r="A85" s="55" t="s">
         <v>132</v>
       </c>
@@ -43330,7 +43336,7 @@
       <c r="M85" s="93"/>
       <c r="N85" s="97"/>
     </row>
-    <row r="86" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:32" ht="15">
       <c r="A86" s="55" t="s">
         <v>143</v>
       </c>
@@ -43370,7 +43376,7 @@
       <c r="M86" s="93"/>
       <c r="N86" s="98"/>
     </row>
-    <row r="87" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:32" ht="15">
       <c r="A87" s="55" t="s">
         <v>2788</v>
       </c>
@@ -43410,7 +43416,7 @@
       <c r="M87" s="93"/>
       <c r="N87" s="98"/>
     </row>
-    <row r="88" spans="1:32" s="67" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:32" s="67" customFormat="1" ht="15">
       <c r="A88" s="55" t="s">
         <v>206</v>
       </c>
@@ -43450,7 +43456,7 @@
       <c r="M88" s="123"/>
       <c r="AF88" s="63"/>
     </row>
-    <row r="89" spans="1:32" s="67" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:32" s="67" customFormat="1" ht="15">
       <c r="A89" s="55" t="s">
         <v>2850</v>
       </c>
@@ -43478,7 +43484,7 @@
       <c r="M89" s="123"/>
       <c r="AF89" s="63"/>
     </row>
-    <row r="90" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:32">
       <c r="A90" s="55" t="s">
         <v>238</v>
       </c>
@@ -43517,7 +43523,7 @@
       </c>
       <c r="M90" s="93"/>
     </row>
-    <row r="91" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:32">
       <c r="A91" s="55" t="s">
         <v>2851</v>
       </c>
@@ -43550,7 +43556,7 @@
       </c>
       <c r="M91" s="93"/>
     </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:32">
       <c r="A92" s="55" t="s">
         <v>2852</v>
       </c>
@@ -43589,7 +43595,7 @@
       </c>
       <c r="M92" s="93"/>
     </row>
-    <row r="93" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:32">
       <c r="A93" s="55" t="s">
         <v>2853</v>
       </c>
@@ -43622,7 +43628,7 @@
       </c>
       <c r="M93" s="93"/>
     </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:32">
       <c r="A94" s="55" t="s">
         <v>2854</v>
       </c>
@@ -43661,7 +43667,7 @@
       </c>
       <c r="M94" s="93"/>
     </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:32">
       <c r="A95" s="55" t="s">
         <v>2855</v>
       </c>
@@ -43694,7 +43700,7 @@
       </c>
       <c r="M95" s="93"/>
     </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:32">
       <c r="A96" s="55" t="s">
         <v>2548</v>
       </c>
@@ -43731,7 +43737,7 @@
       </c>
       <c r="M96" s="93"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13">
       <c r="A97" s="55" t="s">
         <v>2856</v>
       </c>
@@ -43762,7 +43768,7 @@
       </c>
       <c r="M97" s="93"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13">
       <c r="A98" s="55" t="s">
         <v>158</v>
       </c>
@@ -43801,7 +43807,7 @@
       </c>
       <c r="M98" s="93"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13">
       <c r="A99" s="55" t="s">
         <v>2857</v>
       </c>
@@ -43830,7 +43836,7 @@
       </c>
       <c r="M99" s="93"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13">
       <c r="A100" s="55" t="s">
         <v>184</v>
       </c>
@@ -43869,7 +43875,7 @@
       </c>
       <c r="M100" s="93"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13">
       <c r="A101" s="55" t="s">
         <v>2396</v>
       </c>
@@ -43908,7 +43914,7 @@
       </c>
       <c r="M101" s="93"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13">
       <c r="A102" s="55" t="s">
         <v>2858</v>
       </c>
@@ -43945,7 +43951,7 @@
       </c>
       <c r="M102" s="93"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13">
       <c r="A103" s="55" t="s">
         <v>2859</v>
       </c>
@@ -43978,7 +43984,7 @@
       </c>
       <c r="M103" s="93"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13">
       <c r="A104" s="55" t="s">
         <v>2860</v>
       </c>
@@ -44011,7 +44017,7 @@
       </c>
       <c r="M104" s="93"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13">
       <c r="A105" s="55" t="s">
         <v>2861</v>
       </c>
@@ -44050,7 +44056,7 @@
       </c>
       <c r="M105" s="93"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13">
       <c r="A106" s="55" t="s">
         <v>2862</v>
       </c>
@@ -44083,7 +44089,7 @@
       </c>
       <c r="M106" s="93"/>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13">
       <c r="A107" s="55" t="s">
         <v>2559</v>
       </c>
@@ -44122,7 +44128,7 @@
       </c>
       <c r="M107" s="93"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13">
       <c r="A108" s="55" t="s">
         <v>2440</v>
       </c>
@@ -44157,7 +44163,7 @@
       </c>
       <c r="M108" s="93"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13">
       <c r="A109" s="55" t="s">
         <v>2863</v>
       </c>
@@ -44190,7 +44196,7 @@
       </c>
       <c r="M109" s="93"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13">
       <c r="A110" s="55" t="s">
         <v>2864</v>
       </c>
@@ -44229,7 +44235,7 @@
       </c>
       <c r="M110" s="93"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13">
       <c r="A111" s="55" t="s">
         <v>191</v>
       </c>
@@ -44268,7 +44274,7 @@
       </c>
       <c r="M111" s="93"/>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13">
       <c r="A112" s="55" t="s">
         <v>2866</v>
       </c>
@@ -44307,7 +44313,7 @@
       </c>
       <c r="M112" s="93"/>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13">
       <c r="A113" s="55" t="s">
         <v>2865</v>
       </c>
@@ -44340,7 +44346,7 @@
       </c>
       <c r="M113" s="93"/>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13">
       <c r="A114" s="55" t="s">
         <v>2867</v>
       </c>
@@ -44373,7 +44379,7 @@
       </c>
       <c r="M114" s="93"/>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13">
       <c r="A115" s="55" t="s">
         <v>2868</v>
       </c>
@@ -44412,7 +44418,7 @@
       </c>
       <c r="M115" s="93"/>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13">
       <c r="A116" s="55" t="s">
         <v>161</v>
       </c>
@@ -44451,7 +44457,7 @@
       </c>
       <c r="M116" s="93"/>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13">
       <c r="A117" s="55" t="s">
         <v>2869</v>
       </c>
@@ -44484,7 +44490,7 @@
       </c>
       <c r="M117" s="93"/>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13">
       <c r="A118" s="55" t="s">
         <v>2870</v>
       </c>
@@ -44517,7 +44523,7 @@
       </c>
       <c r="M118" s="93"/>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13">
       <c r="A119" s="55" t="s">
         <v>2871</v>
       </c>
@@ -44548,7 +44554,7 @@
       </c>
       <c r="M119" s="93"/>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13">
       <c r="A120" s="55" t="s">
         <v>2872</v>
       </c>
@@ -44587,7 +44593,7 @@
       </c>
       <c r="M120" s="93"/>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13">
       <c r="A121" s="55" t="s">
         <v>2354</v>
       </c>
@@ -44626,7 +44632,7 @@
       </c>
       <c r="M121" s="93"/>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13">
       <c r="A122" s="55" t="s">
         <v>2873</v>
       </c>
@@ -44653,7 +44659,7 @@
       </c>
       <c r="M122" s="93"/>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13">
       <c r="A123" s="55" t="s">
         <v>178</v>
       </c>
@@ -44692,7 +44698,7 @@
       </c>
       <c r="M123" s="93"/>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13">
       <c r="A124" s="55" t="s">
         <v>66</v>
       </c>
@@ -44731,7 +44737,7 @@
       </c>
       <c r="M124" s="93"/>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13">
       <c r="A125" s="55" t="s">
         <v>236</v>
       </c>
@@ -44770,7 +44776,7 @@
       </c>
       <c r="M125" s="93"/>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13">
       <c r="A126" s="55" t="s">
         <v>157</v>
       </c>
@@ -44809,7 +44815,7 @@
       </c>
       <c r="M126" s="93"/>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13">
       <c r="A127" s="55" t="s">
         <v>2874</v>
       </c>
@@ -44834,7 +44840,7 @@
       </c>
       <c r="M127" s="93"/>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13">
       <c r="A128" s="55" t="s">
         <v>188</v>
       </c>
@@ -44873,7 +44879,7 @@
       </c>
       <c r="M128" s="93"/>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13">
       <c r="A129" s="55" t="s">
         <v>2875</v>
       </c>
@@ -44912,7 +44918,7 @@
       </c>
       <c r="M129" s="93"/>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13">
       <c r="A130" s="55" t="s">
         <v>3062</v>
       </c>
@@ -44947,7 +44953,7 @@
       </c>
       <c r="M130" s="93"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13">
       <c r="A131" s="55" t="s">
         <v>2876</v>
       </c>
@@ -44970,7 +44976,7 @@
       </c>
       <c r="M131" s="93"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13">
       <c r="A132" s="55" t="s">
         <v>2355</v>
       </c>
@@ -45009,7 +45015,7 @@
       </c>
       <c r="M132" s="93"/>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13">
       <c r="A133" s="55" t="s">
         <v>99</v>
       </c>
@@ -45048,7 +45054,7 @@
       </c>
       <c r="M133" s="93"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13">
       <c r="A134" s="55" t="s">
         <v>2877</v>
       </c>
@@ -45087,7 +45093,7 @@
       </c>
       <c r="M134" s="93"/>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13">
       <c r="A135" s="55" t="s">
         <v>2878</v>
       </c>
@@ -45120,7 +45126,7 @@
       </c>
       <c r="M135" s="93"/>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13">
       <c r="A136" s="55" t="s">
         <v>231</v>
       </c>
@@ -45159,7 +45165,7 @@
       </c>
       <c r="M136" s="93"/>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13">
       <c r="A137" s="55" t="s">
         <v>208</v>
       </c>
@@ -45198,7 +45204,7 @@
       </c>
       <c r="M137" s="93"/>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13">
       <c r="A138" s="55" t="s">
         <v>198</v>
       </c>
@@ -45237,7 +45243,7 @@
       </c>
       <c r="M138" s="93"/>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13">
       <c r="A139" s="55" t="s">
         <v>218</v>
       </c>
@@ -45276,7 +45282,7 @@
       </c>
       <c r="M139" s="93"/>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13">
       <c r="A140" s="55" t="s">
         <v>2879</v>
       </c>
@@ -45315,7 +45321,7 @@
       </c>
       <c r="M140" s="93"/>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13">
       <c r="A141" s="55" t="s">
         <v>2880</v>
       </c>
@@ -45354,7 +45360,7 @@
       </c>
       <c r="M141" s="93"/>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13">
       <c r="A142" s="55" t="s">
         <v>2881</v>
       </c>
@@ -45387,7 +45393,7 @@
       </c>
       <c r="M142" s="93"/>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13">
       <c r="A143" s="55" t="s">
         <v>2882</v>
       </c>
@@ -45420,7 +45426,7 @@
       </c>
       <c r="M143" s="93"/>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13">
       <c r="A144" s="55" t="s">
         <v>2883</v>
       </c>
@@ -45459,7 +45465,7 @@
       </c>
       <c r="M144" s="93"/>
     </row>
-    <row r="145" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:32">
       <c r="A145" s="55" t="s">
         <v>257</v>
       </c>
@@ -45498,7 +45504,7 @@
       </c>
       <c r="M145" s="93"/>
     </row>
-    <row r="146" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:32">
       <c r="A146" s="55" t="s">
         <v>3099</v>
       </c>
@@ -45537,7 +45543,7 @@
       </c>
       <c r="M146" s="93"/>
     </row>
-    <row r="147" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:32">
       <c r="A147" s="55" t="s">
         <v>103</v>
       </c>
@@ -45576,7 +45582,7 @@
       </c>
       <c r="M147" s="93"/>
     </row>
-    <row r="148" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:32">
       <c r="A148" s="55" t="s">
         <v>2884</v>
       </c>
@@ -45603,7 +45609,7 @@
       </c>
       <c r="M148" s="93"/>
     </row>
-    <row r="149" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:32">
       <c r="A149" s="55" t="s">
         <v>2524</v>
       </c>
@@ -45642,7 +45648,7 @@
       </c>
       <c r="M149" s="93"/>
     </row>
-    <row r="150" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:32">
       <c r="A150" s="55" t="s">
         <v>2885</v>
       </c>
@@ -45675,7 +45681,7 @@
       </c>
       <c r="M150" s="93"/>
     </row>
-    <row r="151" spans="1:32" s="89" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:32" s="89" customFormat="1">
       <c r="A151" s="55" t="s">
         <v>2886</v>
       </c>
@@ -45709,7 +45715,7 @@
       <c r="M151" s="122"/>
       <c r="AF151" s="63"/>
     </row>
-    <row r="152" spans="1:32" s="67" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:32" s="67" customFormat="1" ht="15">
       <c r="A152" s="55" t="s">
         <v>2887</v>
       </c>
@@ -45749,7 +45755,7 @@
       <c r="M152" s="123"/>
       <c r="AF152" s="63"/>
     </row>
-    <row r="153" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:32">
       <c r="A153" s="55" t="s">
         <v>2888</v>
       </c>
@@ -45776,7 +45782,7 @@
       </c>
       <c r="M153" s="93"/>
     </row>
-    <row r="154" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:32">
       <c r="A154" s="55" t="s">
         <v>2889</v>
       </c>
@@ -45809,7 +45815,7 @@
       </c>
       <c r="M154" s="93"/>
     </row>
-    <row r="155" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:32">
       <c r="A155" s="55" t="s">
         <v>2890</v>
       </c>
@@ -45848,7 +45854,7 @@
       </c>
       <c r="M155" s="93"/>
     </row>
-    <row r="156" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:32">
       <c r="A156" s="55" t="s">
         <v>2891</v>
       </c>
@@ -45875,7 +45881,7 @@
       </c>
       <c r="M156" s="93"/>
     </row>
-    <row r="157" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:32">
       <c r="A157" s="55" t="s">
         <v>2370</v>
       </c>
@@ -45914,7 +45920,7 @@
       </c>
       <c r="M157" s="93"/>
     </row>
-    <row r="158" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:32">
       <c r="A158" s="55" t="s">
         <v>202</v>
       </c>
@@ -45953,7 +45959,7 @@
       </c>
       <c r="M158" s="93"/>
     </row>
-    <row r="159" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:32">
       <c r="A159" s="55" t="s">
         <v>2892</v>
       </c>
@@ -45986,7 +45992,7 @@
       </c>
       <c r="M159" s="93"/>
     </row>
-    <row r="160" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:32">
       <c r="A160" s="55" t="s">
         <v>2893</v>
       </c>
@@ -46019,7 +46025,7 @@
       </c>
       <c r="M160" s="93"/>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13">
       <c r="A161" s="55" t="s">
         <v>211</v>
       </c>
@@ -46058,7 +46064,7 @@
       </c>
       <c r="M161" s="93"/>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13">
       <c r="A162" s="55" t="s">
         <v>2894</v>
       </c>
@@ -46097,7 +46103,7 @@
       </c>
       <c r="M162" s="93"/>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13">
       <c r="A163" s="55" t="s">
         <v>2895</v>
       </c>
@@ -46136,7 +46142,7 @@
       </c>
       <c r="M163" s="93"/>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13">
       <c r="A164" s="55" t="s">
         <v>199</v>
       </c>
@@ -46175,7 +46181,7 @@
       </c>
       <c r="M164" s="93"/>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13">
       <c r="A165" s="55" t="s">
         <v>2356</v>
       </c>
@@ -46214,7 +46220,7 @@
       </c>
       <c r="M165" s="93"/>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13">
       <c r="A166" s="55" t="s">
         <v>235</v>
       </c>
@@ -46253,7 +46259,7 @@
       </c>
       <c r="M166" s="93"/>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13">
       <c r="A167" s="55" t="s">
         <v>181</v>
       </c>
@@ -46292,7 +46298,7 @@
       </c>
       <c r="M167" s="93"/>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13">
       <c r="A168" s="55" t="s">
         <v>176</v>
       </c>
@@ -46331,7 +46337,7 @@
       </c>
       <c r="M168" s="93"/>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13">
       <c r="A169" s="55" t="s">
         <v>226</v>
       </c>
@@ -46370,7 +46376,7 @@
       </c>
       <c r="M169" s="93"/>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13">
       <c r="A170" s="55" t="s">
         <v>2896</v>
       </c>
@@ -46395,7 +46401,7 @@
       </c>
       <c r="M170" s="93"/>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13">
       <c r="A171" s="55" t="s">
         <v>194</v>
       </c>
@@ -46434,7 +46440,7 @@
       </c>
       <c r="M171" s="93"/>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13">
       <c r="A172" s="55" t="s">
         <v>2897</v>
       </c>
@@ -46467,7 +46473,7 @@
       </c>
       <c r="M172" s="93"/>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13">
       <c r="A173" s="55" t="s">
         <v>2898</v>
       </c>
@@ -46506,7 +46512,7 @@
       </c>
       <c r="M173" s="93"/>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13">
       <c r="A174" s="55" t="s">
         <v>2527</v>
       </c>
@@ -46545,7 +46551,7 @@
       </c>
       <c r="M174" s="93"/>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13">
       <c r="A175" s="55" t="s">
         <v>2899</v>
       </c>
@@ -46584,7 +46590,7 @@
       </c>
       <c r="M175" s="93"/>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13">
       <c r="A176" s="55" t="s">
         <v>2397</v>
       </c>
@@ -46623,7 +46629,7 @@
       </c>
       <c r="M176" s="93"/>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13">
       <c r="A177" s="55" t="s">
         <v>2900</v>
       </c>
@@ -46662,7 +46668,7 @@
       </c>
       <c r="M177" s="93"/>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13">
       <c r="A178" s="55" t="s">
         <v>228</v>
       </c>
@@ -46701,7 +46707,7 @@
       </c>
       <c r="M178" s="93"/>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13">
       <c r="A179" s="55" t="s">
         <v>212</v>
       </c>
@@ -46740,7 +46746,7 @@
       </c>
       <c r="M179" s="93"/>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13">
       <c r="A180" s="55" t="s">
         <v>138</v>
       </c>
@@ -46779,7 +46785,7 @@
       </c>
       <c r="M180" s="93"/>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13">
       <c r="A181" s="55" t="s">
         <v>2901</v>
       </c>
@@ -46818,7 +46824,7 @@
       </c>
       <c r="M181" s="93"/>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13">
       <c r="A182" s="55" t="s">
         <v>2902</v>
       </c>
@@ -46849,7 +46855,7 @@
       </c>
       <c r="M182" s="93"/>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13">
       <c r="A183" s="55" t="s">
         <v>2903</v>
       </c>
@@ -46888,7 +46894,7 @@
       </c>
       <c r="M183" s="93"/>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13">
       <c r="A184" s="55" t="s">
         <v>2904</v>
       </c>
@@ -46927,7 +46933,7 @@
       </c>
       <c r="M184" s="93"/>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13">
       <c r="A185" s="55" t="s">
         <v>2905</v>
       </c>
@@ -46960,7 +46966,7 @@
       </c>
       <c r="M185" s="93"/>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13">
       <c r="A186" s="55" t="s">
         <v>209</v>
       </c>
@@ -46999,7 +47005,7 @@
       </c>
       <c r="M186" s="93"/>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13">
       <c r="A187" s="55" t="s">
         <v>2592</v>
       </c>
@@ -47038,7 +47044,7 @@
       </c>
       <c r="M187" s="93"/>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13">
       <c r="A188" s="55" t="s">
         <v>2598</v>
       </c>
@@ -47073,7 +47079,7 @@
       </c>
       <c r="M188" s="93"/>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13">
       <c r="A189" s="55" t="s">
         <v>2906</v>
       </c>
@@ -47106,7 +47112,7 @@
       </c>
       <c r="M189" s="93"/>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13">
       <c r="A190" s="55" t="s">
         <v>2907</v>
       </c>
@@ -47145,7 +47151,7 @@
       </c>
       <c r="M190" s="93"/>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13">
       <c r="A191" s="55" t="s">
         <v>2908</v>
       </c>
@@ -47184,7 +47190,7 @@
       </c>
       <c r="M191" s="93"/>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13">
       <c r="A192" s="55" t="s">
         <v>2909</v>
       </c>
@@ -47217,7 +47223,7 @@
       </c>
       <c r="M192" s="93"/>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13">
       <c r="A193" s="55" t="s">
         <v>2910</v>
       </c>
@@ -47256,7 +47262,7 @@
       </c>
       <c r="M193" s="93"/>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13">
       <c r="A194" s="55" t="s">
         <v>170</v>
       </c>
@@ -47293,7 +47299,7 @@
       </c>
       <c r="M194" s="93"/>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13">
       <c r="A195" s="55" t="s">
         <v>155</v>
       </c>
@@ -47332,7 +47338,7 @@
       </c>
       <c r="M195" s="93"/>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13">
       <c r="A196" s="55" t="s">
         <v>2911</v>
       </c>
@@ -47359,7 +47365,7 @@
       </c>
       <c r="M196" s="93"/>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13">
       <c r="A197" s="55" t="s">
         <v>2912</v>
       </c>
@@ -47384,7 +47390,7 @@
       </c>
       <c r="M197" s="93"/>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:13">
       <c r="A198" s="55" t="s">
         <v>2913</v>
       </c>
@@ -47423,7 +47429,7 @@
       </c>
       <c r="M198" s="93"/>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:13">
       <c r="A199" s="55" t="s">
         <v>2914</v>
       </c>
@@ -47456,7 +47462,7 @@
       </c>
       <c r="M199" s="93"/>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:13">
       <c r="A200" s="55" t="s">
         <v>2915</v>
       </c>
@@ -47487,7 +47493,7 @@
       </c>
       <c r="M200" s="93"/>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13">
       <c r="A201" s="55" t="s">
         <v>2916</v>
       </c>
@@ -47526,7 +47532,7 @@
       </c>
       <c r="M201" s="93"/>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13">
       <c r="A202" s="55" t="s">
         <v>2917</v>
       </c>
@@ -47551,7 +47557,7 @@
       </c>
       <c r="M202" s="93"/>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:13">
       <c r="A203" s="55" t="s">
         <v>2918</v>
       </c>
@@ -47590,7 +47596,7 @@
       </c>
       <c r="M203" s="93"/>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:13">
       <c r="A204" s="55" t="s">
         <v>2919</v>
       </c>
@@ -47621,7 +47627,7 @@
       </c>
       <c r="M204" s="93"/>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13">
       <c r="A205" s="55" t="s">
         <v>255</v>
       </c>
@@ -47660,7 +47666,7 @@
       </c>
       <c r="M205" s="93"/>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:13">
       <c r="A206" s="55" t="s">
         <v>2920</v>
       </c>
@@ -47687,7 +47693,7 @@
       </c>
       <c r="M206" s="93"/>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:13">
       <c r="A207" s="55" t="s">
         <v>2921</v>
       </c>
@@ -47720,7 +47726,7 @@
       </c>
       <c r="M207" s="93"/>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:13">
       <c r="A208" s="55" t="s">
         <v>2922</v>
       </c>
@@ -47745,7 +47751,7 @@
       </c>
       <c r="M208" s="93"/>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:13">
       <c r="A209" s="55" t="s">
         <v>2357</v>
       </c>
@@ -47784,7 +47790,7 @@
       </c>
       <c r="M209" s="93"/>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:13">
       <c r="A210" s="55" t="s">
         <v>3111</v>
       </c>
@@ -47813,7 +47819,7 @@
       </c>
       <c r="M210" s="93"/>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:13">
       <c r="A211" s="55" t="s">
         <v>2923</v>
       </c>
@@ -47846,7 +47852,7 @@
       </c>
       <c r="M211" s="93"/>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:13">
       <c r="A212" s="55" t="s">
         <v>2358</v>
       </c>
@@ -47885,7 +47891,7 @@
       </c>
       <c r="M212" s="93"/>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:13">
       <c r="A213" s="55" t="s">
         <v>162</v>
       </c>
@@ -47924,7 +47930,7 @@
       </c>
       <c r="M213" s="93"/>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:13">
       <c r="A214" s="55" t="s">
         <v>2924</v>
       </c>
@@ -47957,7 +47963,7 @@
       </c>
       <c r="M214" s="93"/>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:13">
       <c r="A215" s="55" t="s">
         <v>2925</v>
       </c>
@@ -47996,7 +48002,7 @@
       </c>
       <c r="M215" s="93"/>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:13">
       <c r="A216" s="55" t="s">
         <v>3117</v>
       </c>
@@ -48031,7 +48037,7 @@
       </c>
       <c r="M216" s="93"/>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:13">
       <c r="A217" s="55" t="s">
         <v>2376</v>
       </c>
@@ -48070,7 +48076,7 @@
       </c>
       <c r="M217" s="93"/>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:13">
       <c r="A218" s="55" t="s">
         <v>2473</v>
       </c>
@@ -48103,7 +48109,7 @@
       </c>
       <c r="M218" s="93"/>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:13">
       <c r="A219" s="55" t="s">
         <v>2926</v>
       </c>
@@ -48136,7 +48142,7 @@
       </c>
       <c r="M219" s="93"/>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:13">
       <c r="A220" s="55" t="s">
         <v>2927</v>
       </c>
@@ -48169,7 +48175,7 @@
       </c>
       <c r="M220" s="93"/>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:13">
       <c r="A221" s="55" t="s">
         <v>2928</v>
       </c>
@@ -48208,7 +48214,7 @@
       </c>
       <c r="M221" s="93"/>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:13">
       <c r="A222" s="55" t="s">
         <v>2929</v>
       </c>
@@ -48241,7 +48247,7 @@
       </c>
       <c r="M222" s="56"/>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:13">
       <c r="A223" s="55" t="s">
         <v>2359</v>
       </c>
@@ -48280,7 +48286,7 @@
       </c>
       <c r="M223" s="56"/>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:13">
       <c r="A224" s="55" t="s">
         <v>130</v>
       </c>
@@ -48319,7 +48325,7 @@
       </c>
       <c r="M224" s="56"/>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:13">
       <c r="A225" s="55" t="s">
         <v>163</v>
       </c>
@@ -48358,7 +48364,7 @@
       </c>
       <c r="M225" s="56"/>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:13">
       <c r="A226" s="55" t="s">
         <v>2930</v>
       </c>
@@ -48397,7 +48403,7 @@
       </c>
       <c r="M226" s="56"/>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:13">
       <c r="A227" s="55" t="s">
         <v>2931</v>
       </c>
@@ -48430,7 +48436,7 @@
       </c>
       <c r="M227" s="56"/>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:13">
       <c r="A228" s="55" t="s">
         <v>2932</v>
       </c>
@@ -48471,7 +48477,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:13">
       <c r="A229" s="55" t="s">
         <v>2360</v>
       </c>
@@ -48510,7 +48516,7 @@
       </c>
       <c r="M229" s="56"/>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:13">
       <c r="A230" s="55" t="s">
         <v>2933</v>
       </c>
@@ -48549,7 +48555,7 @@
       </c>
       <c r="M230" s="56"/>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:13">
       <c r="A231" s="55" t="s">
         <v>2934</v>
       </c>
@@ -48586,7 +48592,7 @@
       </c>
       <c r="M231" s="56"/>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:13">
       <c r="A232" s="55" t="s">
         <v>2934</v>
       </c>
@@ -48625,7 +48631,7 @@
       </c>
       <c r="M232" s="56"/>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:13">
       <c r="A233" s="55" t="s">
         <v>2380</v>
       </c>
@@ -48664,7 +48670,7 @@
       </c>
       <c r="M233" s="56"/>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:13">
       <c r="A234" s="55" t="s">
         <v>2522</v>
       </c>
@@ -48703,7 +48709,7 @@
       </c>
       <c r="M234" s="56"/>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:13">
       <c r="A235" s="55" t="s">
         <v>2935</v>
       </c>
@@ -48732,7 +48738,7 @@
       </c>
       <c r="M235" s="56"/>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:13">
       <c r="A236" s="55" t="s">
         <v>200</v>
       </c>
@@ -48771,7 +48777,7 @@
       </c>
       <c r="M236" s="56"/>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:13">
       <c r="A237" s="55" t="s">
         <v>2936</v>
       </c>
@@ -48804,7 +48810,7 @@
       </c>
       <c r="M237" s="93"/>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:13">
       <c r="A238" s="55" t="s">
         <v>102</v>
       </c>
@@ -48843,7 +48849,7 @@
       </c>
       <c r="M238" s="56"/>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:13">
       <c r="A239" s="55" t="s">
         <v>2937</v>
       </c>
@@ -48882,7 +48888,7 @@
       </c>
       <c r="M239" s="56"/>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:13">
       <c r="A240" s="55" t="s">
         <v>2381</v>
       </c>
@@ -48921,7 +48927,7 @@
       </c>
       <c r="M240" s="56"/>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:13">
       <c r="A241" s="55" t="s">
         <v>189</v>
       </c>
@@ -48960,7 +48966,7 @@
       </c>
       <c r="M241" s="56"/>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:13">
       <c r="A242" s="55" t="s">
         <v>2938</v>
       </c>
@@ -48989,7 +48995,7 @@
       </c>
       <c r="M242" s="56"/>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:13">
       <c r="A243" s="55" t="s">
         <v>2939</v>
       </c>
@@ -49028,7 +49034,7 @@
       </c>
       <c r="M243" s="56"/>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:13">
       <c r="A244" s="55" t="s">
         <v>44</v>
       </c>
@@ -49069,7 +49075,7 @@
         <v>2790</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:13">
       <c r="A245" s="55" t="s">
         <v>2940</v>
       </c>
@@ -49096,7 +49102,7 @@
       </c>
       <c r="M245" s="56"/>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:13">
       <c r="A246" s="55" t="s">
         <v>139</v>
       </c>
@@ -49135,7 +49141,7 @@
       </c>
       <c r="M246" s="124"/>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:13">
       <c r="A247" s="55" t="s">
         <v>2941</v>
       </c>
@@ -49168,7 +49174,7 @@
       </c>
       <c r="M247" s="56"/>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:13">
       <c r="A248" s="55" t="s">
         <v>3063</v>
       </c>
@@ -49207,7 +49213,7 @@
       </c>
       <c r="M248" s="93"/>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:13">
       <c r="A249" s="55" t="s">
         <v>2361</v>
       </c>
@@ -49240,7 +49246,7 @@
       </c>
       <c r="M249" s="56"/>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:13">
       <c r="A250" s="55" t="s">
         <v>2942</v>
       </c>
@@ -49267,7 +49273,7 @@
       </c>
       <c r="M250" s="56"/>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:13">
       <c r="A251" s="55" t="s">
         <v>180</v>
       </c>
@@ -49306,7 +49312,7 @@
       </c>
       <c r="M251" s="56"/>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:13">
       <c r="A252" s="55" t="s">
         <v>2943</v>
       </c>
@@ -49333,7 +49339,7 @@
       </c>
       <c r="M252" s="56"/>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:13">
       <c r="A253" s="55" t="s">
         <v>2525</v>
       </c>
@@ -49372,7 +49378,7 @@
       </c>
       <c r="M253" s="56"/>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:13">
       <c r="A254" s="55" t="s">
         <v>2944</v>
       </c>
@@ -49405,7 +49411,7 @@
         <v>2648</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:13">
       <c r="A255" s="55" t="s">
         <v>2362</v>
       </c>
@@ -49444,7 +49450,7 @@
       </c>
       <c r="M255" s="56"/>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:13">
       <c r="A256" s="55" t="s">
         <v>2945</v>
       </c>
@@ -49485,7 +49491,7 @@
         <v>2793</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:13">
       <c r="A257" s="55" t="s">
         <v>2946</v>
       </c>
@@ -49518,7 +49524,7 @@
       </c>
       <c r="M257" s="56"/>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:13">
       <c r="A258" s="55" t="s">
         <v>2528</v>
       </c>
@@ -49557,7 +49563,7 @@
       </c>
       <c r="M258" s="56"/>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:13">
       <c r="A259" s="55" t="s">
         <v>225</v>
       </c>
@@ -49596,7 +49602,7 @@
       </c>
       <c r="M259" s="56"/>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:13">
       <c r="A260" s="55" t="s">
         <v>227</v>
       </c>
@@ -49635,7 +49641,7 @@
       </c>
       <c r="M260" s="56"/>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:13">
       <c r="A261" s="55" t="s">
         <v>2947</v>
       </c>
@@ -49670,7 +49676,7 @@
       </c>
       <c r="M261" s="56"/>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:13">
       <c r="A262" s="55" t="s">
         <v>219</v>
       </c>
@@ -49709,7 +49715,7 @@
       </c>
       <c r="M262" s="56"/>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:13">
       <c r="A263" s="55" t="s">
         <v>2948</v>
       </c>
@@ -49748,7 +49754,7 @@
       </c>
       <c r="M263" s="56"/>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:13">
       <c r="A264" s="55" t="s">
         <v>247</v>
       </c>
@@ -49787,7 +49793,7 @@
       </c>
       <c r="M264" s="56"/>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:13">
       <c r="A265" s="55" t="s">
         <v>2949</v>
       </c>
@@ -49826,7 +49832,7 @@
       </c>
       <c r="M265" s="56"/>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:13">
       <c r="A266" s="55" t="s">
         <v>2950</v>
       </c>
@@ -49865,7 +49871,7 @@
       </c>
       <c r="M266" s="56"/>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:13">
       <c r="A267" s="55" t="s">
         <v>2744</v>
       </c>
@@ -49904,7 +49910,7 @@
       </c>
       <c r="M267" s="56"/>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:13">
       <c r="A268" s="55" t="s">
         <v>2363</v>
       </c>
@@ -49943,7 +49949,7 @@
       </c>
       <c r="M268" s="56"/>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:13">
       <c r="A269" s="55" t="s">
         <v>2951</v>
       </c>
@@ -49978,7 +49984,7 @@
       </c>
       <c r="M269" s="56"/>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:13">
       <c r="A270" s="55" t="s">
         <v>2364</v>
       </c>
@@ -50017,7 +50023,7 @@
       </c>
       <c r="M270" s="56"/>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:13">
       <c r="A271" s="55" t="s">
         <v>2952</v>
       </c>
@@ -50056,7 +50062,7 @@
       </c>
       <c r="M271" s="56"/>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:13">
       <c r="A272" s="55" t="s">
         <v>136</v>
       </c>
@@ -50095,7 +50101,7 @@
       </c>
       <c r="M272" s="56"/>
     </row>
-    <row r="273" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:32">
       <c r="A273" s="55" t="s">
         <v>2953</v>
       </c>
@@ -50128,7 +50134,7 @@
       </c>
       <c r="M273" s="56"/>
     </row>
-    <row r="274" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:32">
       <c r="A274" s="55" t="s">
         <v>2954</v>
       </c>
@@ -50167,7 +50173,7 @@
       </c>
       <c r="M274" s="56"/>
     </row>
-    <row r="275" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:32">
       <c r="A275" s="55" t="s">
         <v>177</v>
       </c>
@@ -50206,7 +50212,7 @@
       </c>
       <c r="M275" s="56"/>
     </row>
-    <row r="276" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:32">
       <c r="A276" s="55" t="s">
         <v>2365</v>
       </c>
@@ -50245,7 +50251,7 @@
       </c>
       <c r="M276" s="56"/>
     </row>
-    <row r="277" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:32">
       <c r="A277" s="55" t="s">
         <v>2955</v>
       </c>
@@ -50278,7 +50284,7 @@
       </c>
       <c r="M277" s="56"/>
     </row>
-    <row r="278" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:32">
       <c r="A278" s="55" t="s">
         <v>2956</v>
       </c>
@@ -50317,7 +50323,7 @@
       </c>
       <c r="M278" s="56"/>
     </row>
-    <row r="279" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:32">
       <c r="A279" s="55" t="s">
         <v>2957</v>
       </c>
@@ -50350,7 +50356,7 @@
       </c>
       <c r="M279" s="56"/>
     </row>
-    <row r="280" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:32">
       <c r="A280" s="55" t="s">
         <v>2958</v>
       </c>
@@ -50389,7 +50395,7 @@
       </c>
       <c r="M280" s="56"/>
     </row>
-    <row r="281" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:32">
       <c r="A281" s="55" t="s">
         <v>2959</v>
       </c>
@@ -50422,7 +50428,7 @@
       </c>
       <c r="M281" s="56"/>
     </row>
-    <row r="282" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:32">
       <c r="A282" s="55" t="s">
         <v>152</v>
       </c>
@@ -50461,7 +50467,7 @@
       </c>
       <c r="M282" s="56"/>
     </row>
-    <row r="283" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:32">
       <c r="A283" s="55" t="s">
         <v>2960</v>
       </c>
@@ -50500,7 +50506,7 @@
       </c>
       <c r="M283" s="56"/>
     </row>
-    <row r="284" spans="1:32" s="89" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:32" s="89" customFormat="1">
       <c r="A284" s="55" t="s">
         <v>2961</v>
       </c>
@@ -50536,7 +50542,7 @@
       <c r="M284" s="82"/>
       <c r="AF284" s="63"/>
     </row>
-    <row r="285" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:32">
       <c r="A285" s="55" t="s">
         <v>2962</v>
       </c>
@@ -50569,7 +50575,7 @@
       </c>
       <c r="M285" s="56"/>
     </row>
-    <row r="286" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:32">
       <c r="A286" s="55" t="s">
         <v>105</v>
       </c>
@@ -50608,7 +50614,7 @@
       </c>
       <c r="M286" s="56"/>
     </row>
-    <row r="287" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:32">
       <c r="A287" s="55" t="s">
         <v>2963</v>
       </c>
@@ -50641,7 +50647,7 @@
       </c>
       <c r="M287" s="56"/>
     </row>
-    <row r="288" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:32">
       <c r="A288" s="55" t="s">
         <v>2964</v>
       </c>
@@ -50674,7 +50680,7 @@
       </c>
       <c r="M288" s="56"/>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:13">
       <c r="A289" s="55" t="s">
         <v>2965</v>
       </c>
@@ -50703,7 +50709,7 @@
       </c>
       <c r="M289" s="56"/>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:13">
       <c r="A290" s="55" t="s">
         <v>2966</v>
       </c>
@@ -50742,7 +50748,7 @@
       </c>
       <c r="M290" s="56"/>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:13">
       <c r="A291" s="55" t="s">
         <v>2967</v>
       </c>
@@ -50775,7 +50781,7 @@
       </c>
       <c r="M291" s="56"/>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:13">
       <c r="A292" s="55" t="s">
         <v>2968</v>
       </c>
@@ -50814,7 +50820,7 @@
       </c>
       <c r="M292" s="56"/>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:13">
       <c r="A293" s="55" t="s">
         <v>2969</v>
       </c>
@@ -50853,7 +50859,7 @@
       </c>
       <c r="M293" s="56"/>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:13">
       <c r="A294" s="55" t="s">
         <v>2970</v>
       </c>
@@ -50892,7 +50898,7 @@
       </c>
       <c r="M294" s="56"/>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:13">
       <c r="A295" s="55" t="s">
         <v>2366</v>
       </c>
@@ -50931,7 +50937,7 @@
       </c>
       <c r="M295" s="56"/>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:13">
       <c r="A296" s="55" t="s">
         <v>150</v>
       </c>
@@ -50970,7 +50976,7 @@
       </c>
       <c r="M296" s="56"/>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:13">
       <c r="A297" s="55" t="s">
         <v>2971</v>
       </c>
@@ -51009,7 +51015,7 @@
       </c>
       <c r="M297" s="56"/>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:13">
       <c r="A298" s="55" t="s">
         <v>2972</v>
       </c>
@@ -51048,7 +51054,7 @@
       </c>
       <c r="M298" s="56"/>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:13">
       <c r="A299" s="55" t="s">
         <v>2973</v>
       </c>
@@ -51075,7 +51081,7 @@
       </c>
       <c r="M299" s="56"/>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:13">
       <c r="A300" s="55" t="s">
         <v>2974</v>
       </c>
@@ -51108,7 +51114,7 @@
       </c>
       <c r="M300" s="56"/>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:13">
       <c r="A301" s="55" t="s">
         <v>145</v>
       </c>
@@ -51147,7 +51153,7 @@
       </c>
       <c r="M301" s="56"/>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:13">
       <c r="A302" s="55" t="s">
         <v>2975</v>
       </c>
@@ -51186,7 +51192,7 @@
       </c>
       <c r="M302" s="56"/>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:13">
       <c r="A303" s="55" t="s">
         <v>2976</v>
       </c>
@@ -51219,7 +51225,7 @@
       </c>
       <c r="M303" s="56"/>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:13">
       <c r="A304" s="55" t="s">
         <v>234</v>
       </c>
@@ -51258,7 +51264,7 @@
       </c>
       <c r="M304" s="56"/>
     </row>
-    <row r="305" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:32">
       <c r="A305" s="55" t="s">
         <v>2977</v>
       </c>
@@ -51297,7 +51303,7 @@
       </c>
       <c r="M305" s="56"/>
     </row>
-    <row r="306" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:32">
       <c r="A306" s="55" t="s">
         <v>2978</v>
       </c>
@@ -51324,7 +51330,7 @@
       </c>
       <c r="M306" s="56"/>
     </row>
-    <row r="307" spans="1:32" s="67" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:32" s="67" customFormat="1" ht="15">
       <c r="A307" s="55" t="s">
         <v>2979</v>
       </c>
@@ -51352,7 +51358,7 @@
       <c r="M307" s="53"/>
       <c r="AF307" s="63"/>
     </row>
-    <row r="308" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:32">
       <c r="A308" s="55" t="s">
         <v>2980</v>
       </c>
@@ -51375,7 +51381,7 @@
       </c>
       <c r="M308" s="56"/>
     </row>
-    <row r="309" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:32">
       <c r="A309" s="55" t="s">
         <v>165</v>
       </c>
@@ -51414,7 +51420,7 @@
       </c>
       <c r="M309" s="56"/>
     </row>
-    <row r="310" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:32" ht="15">
       <c r="A310" s="55" t="s">
         <v>2981</v>
       </c>
@@ -51449,7 +51455,7 @@
       </c>
       <c r="M310" s="56"/>
     </row>
-    <row r="311" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:32">
       <c r="A311" s="55" t="s">
         <v>2982</v>
       </c>
@@ -51488,7 +51494,7 @@
       </c>
       <c r="M311" s="56"/>
     </row>
-    <row r="312" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:32">
       <c r="A312" s="55" t="s">
         <v>2983</v>
       </c>
@@ -51527,7 +51533,7 @@
       </c>
       <c r="M312" s="56"/>
     </row>
-    <row r="313" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:32">
       <c r="A313" s="55" t="s">
         <v>131</v>
       </c>
@@ -51566,7 +51572,7 @@
       </c>
       <c r="M313" s="56"/>
     </row>
-    <row r="314" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:32">
       <c r="A314" s="55" t="s">
         <v>80</v>
       </c>
@@ -51605,7 +51611,7 @@
       </c>
       <c r="M314" s="56"/>
     </row>
-    <row r="315" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:32">
       <c r="A315" s="55" t="s">
         <v>140</v>
       </c>
@@ -51644,7 +51650,7 @@
       </c>
       <c r="M315" s="56"/>
     </row>
-    <row r="316" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:32">
       <c r="A316" s="55" t="s">
         <v>182</v>
       </c>
@@ -51683,7 +51689,7 @@
       </c>
       <c r="M316" s="56"/>
     </row>
-    <row r="317" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:32">
       <c r="A317" s="55" t="s">
         <v>2665</v>
       </c>
@@ -51722,7 +51728,7 @@
       </c>
       <c r="M317" s="56"/>
     </row>
-    <row r="318" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:32">
       <c r="A318" s="55" t="s">
         <v>174</v>
       </c>
@@ -51761,7 +51767,7 @@
       </c>
       <c r="M318" s="56"/>
     </row>
-    <row r="319" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:32">
       <c r="A319" s="55" t="s">
         <v>2984</v>
       </c>
@@ -51800,7 +51806,7 @@
       </c>
       <c r="M319" s="56"/>
     </row>
-    <row r="320" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:32">
       <c r="A320" s="55" t="s">
         <v>2985</v>
       </c>
@@ -51839,7 +51845,7 @@
       </c>
       <c r="M320" s="56"/>
     </row>
-    <row r="321" spans="1:16375" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:16375">
       <c r="A321" s="55" t="s">
         <v>248</v>
       </c>
@@ -51878,7 +51884,7 @@
       </c>
       <c r="M321" s="56"/>
     </row>
-    <row r="322" spans="1:16375" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:16375">
       <c r="A322" s="55" t="s">
         <v>2986</v>
       </c>
@@ -68278,7 +68284,7 @@
       <c r="XET322" s="90"/>
       <c r="XEU322" s="90"/>
     </row>
-    <row r="323" spans="1:16375" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:16375">
       <c r="A323" s="55" t="s">
         <v>2987</v>
       </c>
@@ -68311,7 +68317,7 @@
       </c>
       <c r="M323" s="56"/>
     </row>
-    <row r="324" spans="1:16375" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:16375">
       <c r="A324" s="55" t="s">
         <v>2988</v>
       </c>
@@ -68336,7 +68342,7 @@
       </c>
       <c r="M324" s="56"/>
     </row>
-    <row r="325" spans="1:16375" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:16375">
       <c r="A325" s="55" t="s">
         <v>2529</v>
       </c>
@@ -68375,7 +68381,7 @@
       </c>
       <c r="M325" s="56"/>
     </row>
-    <row r="326" spans="1:16375" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:16375">
       <c r="A326" s="55" t="s">
         <v>221</v>
       </c>
@@ -68414,7 +68420,7 @@
       </c>
       <c r="M326" s="56"/>
     </row>
-    <row r="327" spans="1:16375" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:16375">
       <c r="A327" s="55" t="s">
         <v>2989</v>
       </c>
@@ -68453,7 +68459,7 @@
       </c>
       <c r="M327" s="56"/>
     </row>
-    <row r="328" spans="1:16375" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:16375">
       <c r="A328" s="55" t="s">
         <v>2990</v>
       </c>
@@ -68486,7 +68492,7 @@
       </c>
       <c r="M328" s="56"/>
     </row>
-    <row r="329" spans="1:16375" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:16375">
       <c r="A329" s="55" t="s">
         <v>201</v>
       </c>
@@ -68525,7 +68531,7 @@
       </c>
       <c r="M329" s="56"/>
     </row>
-    <row r="330" spans="1:16375" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:16375">
       <c r="A330" s="55" t="s">
         <v>2991</v>
       </c>
@@ -68558,7 +68564,7 @@
       </c>
       <c r="M330" s="56"/>
     </row>
-    <row r="331" spans="1:16375" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:16375">
       <c r="A331" s="55" t="s">
         <v>2992</v>
       </c>
@@ -68591,7 +68597,7 @@
       </c>
       <c r="M331" s="56"/>
     </row>
-    <row r="332" spans="1:16375" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:16375">
       <c r="A332" s="55" t="s">
         <v>2993</v>
       </c>
@@ -68624,7 +68630,7 @@
       </c>
       <c r="M332" s="56"/>
     </row>
-    <row r="333" spans="1:16375" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:16375">
       <c r="A333" s="55" t="s">
         <v>2994</v>
       </c>
@@ -68647,7 +68653,7 @@
       </c>
       <c r="M333" s="56"/>
     </row>
-    <row r="334" spans="1:16375" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:16375">
       <c r="A334" s="55" t="s">
         <v>64</v>
       </c>
@@ -68686,7 +68692,7 @@
       </c>
       <c r="M334" s="56"/>
     </row>
-    <row r="335" spans="1:16375" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:16375">
       <c r="A335" s="55" t="s">
         <v>2995</v>
       </c>
@@ -68725,7 +68731,7 @@
       </c>
       <c r="M335" s="56"/>
     </row>
-    <row r="336" spans="1:16375" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:16375">
       <c r="A336" s="55" t="s">
         <v>2996</v>
       </c>
@@ -68752,7 +68758,7 @@
       </c>
       <c r="M336" s="56"/>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:13">
       <c r="A337" s="55" t="s">
         <v>2997</v>
       </c>
@@ -68781,7 +68787,7 @@
       </c>
       <c r="M337" s="56"/>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:13">
       <c r="A338" s="55" t="s">
         <v>171</v>
       </c>
@@ -68820,7 +68826,7 @@
       </c>
       <c r="M338" s="56"/>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:13">
       <c r="A339" s="55" t="s">
         <v>2687</v>
       </c>
@@ -68859,7 +68865,7 @@
       </c>
       <c r="M339" s="56"/>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:13">
       <c r="A340" s="55" t="s">
         <v>2998</v>
       </c>
@@ -68888,7 +68894,7 @@
       </c>
       <c r="M340" s="56"/>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:13">
       <c r="A341" s="55" t="s">
         <v>2999</v>
       </c>
@@ -68921,7 +68927,7 @@
       </c>
       <c r="M341" s="56"/>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:13">
       <c r="A342" s="55" t="s">
         <v>3000</v>
       </c>
@@ -68954,7 +68960,7 @@
       </c>
       <c r="M342" s="56"/>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:13">
       <c r="A343" s="55" t="s">
         <v>3001</v>
       </c>
@@ -68993,7 +68999,7 @@
       </c>
       <c r="M343" s="56"/>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:13">
       <c r="A344" s="55" t="s">
         <v>3002</v>
       </c>
@@ -69026,7 +69032,7 @@
       </c>
       <c r="M344" s="56"/>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:13">
       <c r="A345" s="55" t="s">
         <v>3003</v>
       </c>
@@ -69059,7 +69065,7 @@
       </c>
       <c r="M345" s="56"/>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:13">
       <c r="A346" s="55" t="s">
         <v>3004</v>
       </c>
@@ -69092,7 +69098,7 @@
       </c>
       <c r="M346" s="56"/>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:13">
       <c r="A347" s="55" t="s">
         <v>3005</v>
       </c>
@@ -69125,7 +69131,7 @@
       </c>
       <c r="M347" s="56"/>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:13">
       <c r="A348" s="55" t="s">
         <v>3006</v>
       </c>
@@ -69158,7 +69164,7 @@
       </c>
       <c r="M348" s="56"/>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:13">
       <c r="A349" s="55" t="s">
         <v>3007</v>
       </c>
@@ -69197,7 +69203,7 @@
       </c>
       <c r="M349" s="56"/>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:13">
       <c r="A350" s="55" t="s">
         <v>166</v>
       </c>
@@ -69230,7 +69236,7 @@
       </c>
       <c r="M350" s="56"/>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:13">
       <c r="A351" s="55" t="s">
         <v>3008</v>
       </c>
@@ -69263,7 +69269,7 @@
       </c>
       <c r="M351" s="93"/>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:13">
       <c r="A352" s="55" t="s">
         <v>3009</v>
       </c>
@@ -69302,7 +69308,7 @@
       </c>
       <c r="M352" s="56"/>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:13">
       <c r="A353" s="55" t="s">
         <v>3010</v>
       </c>
@@ -69341,7 +69347,7 @@
       </c>
       <c r="M353" s="56"/>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:13">
       <c r="A354" s="55" t="s">
         <v>167</v>
       </c>
@@ -69380,7 +69386,7 @@
       </c>
       <c r="M354" s="56"/>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:13">
       <c r="A355" s="55" t="s">
         <v>3011</v>
       </c>
@@ -69407,7 +69413,7 @@
       </c>
       <c r="M355" s="56"/>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:13">
       <c r="A356" s="55" t="s">
         <v>3012</v>
       </c>
@@ -69446,7 +69452,7 @@
       </c>
       <c r="M356" s="56"/>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:13">
       <c r="A357" s="55" t="s">
         <v>3013</v>
       </c>
@@ -69479,7 +69485,7 @@
       </c>
       <c r="M357" s="56"/>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:13">
       <c r="A358" s="55" t="s">
         <v>183</v>
       </c>
@@ -69518,7 +69524,7 @@
       </c>
       <c r="M358" s="56"/>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:13">
       <c r="A359" s="55" t="s">
         <v>2367</v>
       </c>
@@ -69559,7 +69565,7 @@
         <v>2791</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:13">
       <c r="A360" s="55" t="s">
         <v>3014</v>
       </c>
@@ -69598,7 +69604,7 @@
       </c>
       <c r="M360" s="56"/>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:13">
       <c r="A361" s="55" t="s">
         <v>220</v>
       </c>
@@ -69637,7 +69643,7 @@
       </c>
       <c r="M361" s="56"/>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:13">
       <c r="A362" s="55" t="s">
         <v>3015</v>
       </c>
@@ -69676,7 +69682,7 @@
       </c>
       <c r="M362" s="56"/>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:13">
       <c r="A363" s="55" t="s">
         <v>3016</v>
       </c>
@@ -69715,7 +69721,7 @@
       </c>
       <c r="M363" s="56"/>
     </row>
-    <row r="364" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:13" ht="15">
       <c r="A364" s="55" t="s">
         <v>187</v>
       </c>
@@ -69754,7 +69760,7 @@
       </c>
       <c r="M364" s="56"/>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:13">
       <c r="A365" s="55" t="s">
         <v>135</v>
       </c>
@@ -69793,7 +69799,7 @@
       </c>
       <c r="M365" s="56"/>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:13">
       <c r="A366" s="55" t="s">
         <v>3133</v>
       </c>
@@ -69826,7 +69832,7 @@
       </c>
       <c r="M366" s="56"/>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:13">
       <c r="A367" s="55" t="s">
         <v>153</v>
       </c>
@@ -69865,7 +69871,7 @@
       </c>
       <c r="M367" s="93"/>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:13">
       <c r="A368" s="55" t="s">
         <v>237</v>
       </c>
@@ -69904,7 +69910,7 @@
       </c>
       <c r="M368" s="56"/>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:13">
       <c r="A369" s="55" t="s">
         <v>3017</v>
       </c>
@@ -69943,7 +69949,7 @@
       </c>
       <c r="M369" s="56"/>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:13">
       <c r="A370" s="55" t="s">
         <v>193</v>
       </c>
@@ -69982,7 +69988,7 @@
       </c>
       <c r="M370" s="56"/>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:13">
       <c r="A371" s="55" t="s">
         <v>3018</v>
       </c>
@@ -70021,7 +70027,7 @@
       </c>
       <c r="M371" s="56"/>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:13">
       <c r="A372" s="55" t="s">
         <v>3019</v>
       </c>
@@ -70056,7 +70062,7 @@
       </c>
       <c r="M372" s="56"/>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:13">
       <c r="A373" s="55" t="s">
         <v>100</v>
       </c>
@@ -70095,7 +70101,7 @@
       </c>
       <c r="M373" s="56"/>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:13">
       <c r="A374" s="55" t="s">
         <v>168</v>
       </c>
@@ -70134,7 +70140,7 @@
       </c>
       <c r="M374" s="56"/>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:13">
       <c r="A375" s="55" t="s">
         <v>190</v>
       </c>
@@ -70175,7 +70181,7 @@
         <v>2795</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:13">
       <c r="A376" s="55" t="s">
         <v>2368</v>
       </c>
@@ -70214,7 +70220,7 @@
       </c>
       <c r="M376" s="56"/>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:13">
       <c r="A377" s="55" t="s">
         <v>3020</v>
       </c>
@@ -70253,7 +70259,7 @@
       </c>
       <c r="M377" s="56"/>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:13">
       <c r="A378" s="55" t="s">
         <v>3021</v>
       </c>
@@ -70292,7 +70298,7 @@
       </c>
       <c r="M378" s="56"/>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:13">
       <c r="A379" s="55" t="s">
         <v>3022</v>
       </c>
@@ -70323,7 +70329,7 @@
       </c>
       <c r="M379" s="56"/>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:13">
       <c r="A380" s="55" t="s">
         <v>3023</v>
       </c>
@@ -70354,7 +70360,7 @@
       </c>
       <c r="M380" s="56"/>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:13">
       <c r="A381" s="55" t="s">
         <v>156</v>
       </c>
@@ -70393,7 +70399,7 @@
       </c>
       <c r="M381" s="56"/>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:13">
       <c r="A382" s="55" t="s">
         <v>3024</v>
       </c>
@@ -70426,7 +70432,7 @@
       </c>
       <c r="M382" s="56"/>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:13">
       <c r="A383" s="55" t="s">
         <v>3025</v>
       </c>
@@ -70459,7 +70465,7 @@
       </c>
       <c r="M383" s="56"/>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:13">
       <c r="A384" s="55" t="s">
         <v>3026</v>
       </c>
@@ -70490,7 +70496,7 @@
       </c>
       <c r="M384" s="56"/>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:13">
       <c r="A385" s="55" t="s">
         <v>2371</v>
       </c>
@@ -70529,7 +70535,7 @@
       </c>
       <c r="M385" s="56"/>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:13">
       <c r="A386" s="55" t="s">
         <v>3027</v>
       </c>
@@ -70564,7 +70570,7 @@
       </c>
       <c r="M386" s="56"/>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:13">
       <c r="A387" s="55" t="s">
         <v>3028</v>
       </c>
@@ -70597,7 +70603,7 @@
       </c>
       <c r="M387" s="56"/>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:13">
       <c r="A388" s="55" t="s">
         <v>3029</v>
       </c>
@@ -70630,7 +70636,7 @@
       </c>
       <c r="M388" s="56"/>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:13">
       <c r="A389" s="55" t="s">
         <v>258</v>
       </c>
@@ -70663,7 +70669,7 @@
       </c>
       <c r="M389" s="56"/>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:13">
       <c r="A390" s="55" t="s">
         <v>3030</v>
       </c>
@@ -70702,7 +70708,7 @@
       </c>
       <c r="M390" s="56"/>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:13">
       <c r="A391" s="55" t="s">
         <v>146</v>
       </c>
@@ -70741,7 +70747,7 @@
       </c>
       <c r="M391" s="56"/>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:13">
       <c r="A392" s="55" t="s">
         <v>3031</v>
       </c>
@@ -70774,7 +70780,7 @@
       </c>
       <c r="M392" s="56"/>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:13">
       <c r="A393" s="55" t="s">
         <v>3032</v>
       </c>
@@ -70807,7 +70813,7 @@
       </c>
       <c r="M393" s="93"/>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:13">
       <c r="A394" s="55" t="s">
         <v>3033</v>
       </c>
@@ -70840,7 +70846,7 @@
       </c>
       <c r="M394" s="56"/>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:13">
       <c r="A395" s="55" t="s">
         <v>186</v>
       </c>
@@ -70879,7 +70885,7 @@
       </c>
       <c r="M395" s="56"/>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:13">
       <c r="A396" s="55" t="s">
         <v>249</v>
       </c>
@@ -70918,7 +70924,7 @@
       </c>
       <c r="M396" s="56"/>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:13">
       <c r="A397" s="55" t="s">
         <v>3034</v>
       </c>
@@ -70957,7 +70963,7 @@
       </c>
       <c r="M397" s="56"/>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:13">
       <c r="A398" s="55" t="s">
         <v>3035</v>
       </c>
@@ -70990,7 +70996,7 @@
       </c>
       <c r="M398" s="56"/>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:13">
       <c r="A399" s="55" t="s">
         <v>3036</v>
       </c>
@@ -71023,7 +71029,7 @@
       </c>
       <c r="M399" s="56"/>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:13">
       <c r="A400" s="55" t="s">
         <v>3037</v>
       </c>
@@ -71056,7 +71062,7 @@
       </c>
       <c r="M400" s="56"/>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:13">
       <c r="A401" s="55" t="s">
         <v>3038</v>
       </c>
@@ -71097,7 +71103,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:13">
       <c r="A402" s="55" t="s">
         <v>2369</v>
       </c>
@@ -71136,7 +71142,7 @@
       </c>
       <c r="M402" s="56"/>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:13">
       <c r="A403" s="55" t="s">
         <v>3039</v>
       </c>
@@ -71159,7 +71165,7 @@
       </c>
       <c r="M403" s="56"/>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:13">
       <c r="A404" s="55" t="s">
         <v>3040</v>
       </c>
@@ -71192,7 +71198,7 @@
       </c>
       <c r="M404" s="93"/>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:13">
       <c r="A405" s="55" t="s">
         <v>232</v>
       </c>
@@ -71231,7 +71237,7 @@
       </c>
       <c r="M405" s="56"/>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:13">
       <c r="A406" s="55" t="s">
         <v>215</v>
       </c>
@@ -71270,7 +71276,7 @@
       </c>
       <c r="M406" s="56"/>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:13">
       <c r="A407" s="55" t="s">
         <v>3041</v>
       </c>
@@ -71309,7 +71315,7 @@
       </c>
       <c r="M407" s="56"/>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:13">
       <c r="A408" s="55" t="s">
         <v>3042</v>
       </c>
@@ -71348,7 +71354,7 @@
       </c>
       <c r="M408" s="56"/>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:13">
       <c r="A409" s="55" t="s">
         <v>3043</v>
       </c>
@@ -71381,7 +71387,7 @@
       </c>
       <c r="M409" s="56"/>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:13">
       <c r="A410" s="55" t="s">
         <v>3140</v>
       </c>
@@ -71410,7 +71416,7 @@
       </c>
       <c r="M410" s="56"/>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:13">
       <c r="A411" s="55" t="s">
         <v>3044</v>
       </c>
@@ -71449,7 +71455,7 @@
       </c>
       <c r="M411" s="56"/>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:13">
       <c r="A412" s="55" t="s">
         <v>3045</v>
       </c>
@@ -71482,7 +71488,7 @@
       </c>
       <c r="M412" s="56"/>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:13">
       <c r="A413" s="55" t="s">
         <v>205</v>
       </c>
@@ -71523,7 +71529,7 @@
         <v>2794</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:13">
       <c r="A414" s="55" t="s">
         <v>213</v>
       </c>
@@ -71562,7 +71568,7 @@
       </c>
       <c r="M414" s="56"/>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:13">
       <c r="A415" s="55" t="s">
         <v>3046</v>
       </c>
@@ -71601,7 +71607,7 @@
       </c>
       <c r="M415" s="56"/>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:13">
       <c r="A416" s="55" t="s">
         <v>3047</v>
       </c>
@@ -71640,7 +71646,7 @@
       </c>
       <c r="M416" s="56"/>
     </row>
-    <row r="417" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:32">
       <c r="A417" s="55" t="s">
         <v>185</v>
       </c>
@@ -71677,7 +71683,7 @@
       </c>
       <c r="M417" s="56"/>
     </row>
-    <row r="418" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:32">
       <c r="A418" s="55" t="s">
         <v>3048</v>
       </c>
@@ -71710,7 +71716,7 @@
       </c>
       <c r="M418" s="56"/>
     </row>
-    <row r="419" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:32">
       <c r="A419" s="55" t="s">
         <v>89</v>
       </c>
@@ -71749,7 +71755,7 @@
       </c>
       <c r="M419" s="56"/>
     </row>
-    <row r="420" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:32">
       <c r="A420" s="55" t="s">
         <v>3049</v>
       </c>
@@ -71788,7 +71794,7 @@
       </c>
       <c r="M420" s="56"/>
     </row>
-    <row r="421" spans="1:32" s="90" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:32" s="90" customFormat="1">
       <c r="A421" s="55" t="s">
         <v>3050</v>
       </c>
@@ -71828,7 +71834,7 @@
       <c r="M421" s="56"/>
       <c r="AF421" s="63"/>
     </row>
-    <row r="422" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:32">
       <c r="A422" s="55" t="s">
         <v>230</v>
       </c>
@@ -71867,7 +71873,7 @@
       </c>
       <c r="M422" s="56"/>
     </row>
-    <row r="423" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:32">
       <c r="A423" s="55" t="s">
         <v>240</v>
       </c>
@@ -71906,7 +71912,7 @@
       </c>
       <c r="M423" s="56"/>
     </row>
-    <row r="424" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:32">
       <c r="A424" s="55" t="s">
         <v>192</v>
       </c>
@@ -71945,7 +71951,7 @@
       </c>
       <c r="M424" s="56"/>
     </row>
-    <row r="425" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:32">
       <c r="A425" s="55" t="s">
         <v>3051</v>
       </c>
@@ -71984,7 +71990,7 @@
       </c>
       <c r="M425" s="56"/>
     </row>
-    <row r="426" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:32">
       <c r="A426" s="55" t="s">
         <v>195</v>
       </c>
@@ -72023,7 +72029,7 @@
       </c>
       <c r="M426" s="93"/>
     </row>
-    <row r="427" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:32">
       <c r="A427" s="55" t="s">
         <v>3052</v>
       </c>
@@ -72056,7 +72062,7 @@
       </c>
       <c r="M427" s="93"/>
     </row>
-    <row r="428" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:32">
       <c r="A428" s="55" t="s">
         <v>3053</v>
       </c>
@@ -72095,7 +72101,7 @@
       </c>
       <c r="M428" s="93"/>
     </row>
-    <row r="429" spans="1:32" s="90" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:32" s="90" customFormat="1">
       <c r="A429" s="55" t="s">
         <v>3054</v>
       </c>
@@ -72135,7 +72141,7 @@
       <c r="M429" s="93"/>
       <c r="AF429" s="63"/>
     </row>
-    <row r="430" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:32">
       <c r="A430" s="55" t="s">
         <v>3055</v>
       </c>
@@ -72166,7 +72172,7 @@
       </c>
       <c r="M430" s="93"/>
     </row>
-    <row r="431" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:32">
       <c r="A431" s="55" t="s">
         <v>169</v>
       </c>
@@ -72205,7 +72211,7 @@
       </c>
       <c r="M431" s="93"/>
     </row>
-    <row r="432" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:32">
       <c r="A432" s="114" t="s">
         <v>229</v>
       </c>
@@ -72243,7 +72249,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:12">
       <c r="A433" s="114" t="s">
         <v>3056</v>
       </c>
@@ -72272,7 +72278,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:12">
       <c r="A434" s="114" t="s">
         <v>3057</v>
       </c>
@@ -72634,7 +72640,7 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.140625" style="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" style="20" customWidth="1"/>
@@ -72645,14 +72651,14 @@
     <col min="8" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="19" t="s">
         <v>98</v>
       </c>
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="23" t="s">
         <v>30</v>
       </c>
@@ -72664,7 +72670,7 @@
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="23" t="s">
         <v>33</v>
       </c>
@@ -72676,7 +72682,7 @@
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="23" t="s">
         <v>37</v>
       </c>
@@ -72688,7 +72694,7 @@
       <c r="E4" s="22"/>
       <c r="F4" s="22"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="23" t="s">
         <v>38</v>
       </c>
@@ -72700,7 +72706,7 @@
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="23" t="s">
         <v>39</v>
       </c>
@@ -72712,7 +72718,7 @@
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="23" t="s">
         <v>40</v>
       </c>
@@ -72724,7 +72730,7 @@
       <c r="E7" s="22"/>
       <c r="F7" s="22"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="23" t="s">
         <v>41</v>
       </c>
@@ -72736,7 +72742,7 @@
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="23" t="s">
         <v>42</v>
       </c>
@@ -72748,7 +72754,7 @@
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="23" t="s">
         <v>43</v>
       </c>
@@ -72760,7 +72766,7 @@
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="23" t="s">
         <v>45</v>
       </c>
@@ -72772,7 +72778,7 @@
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="23" t="s">
         <v>46</v>
       </c>
@@ -72784,7 +72790,7 @@
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="23" t="s">
         <v>47</v>
       </c>
@@ -72796,7 +72802,7 @@
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="23" t="s">
         <v>48</v>
       </c>
@@ -72808,7 +72814,7 @@
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="23" t="s">
         <v>49</v>
       </c>
@@ -72820,7 +72826,7 @@
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="23" t="s">
         <v>50</v>
       </c>
@@ -72832,7 +72838,7 @@
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="23" t="s">
         <v>51</v>
       </c>
@@ -72844,7 +72850,7 @@
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="23" t="s">
         <v>52</v>
       </c>
@@ -72856,7 +72862,7 @@
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="23" t="s">
         <v>53</v>
       </c>
@@ -72868,7 +72874,7 @@
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="23" t="s">
         <v>54</v>
       </c>
@@ -72880,7 +72886,7 @@
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="23" t="s">
         <v>56</v>
       </c>
@@ -72892,7 +72898,7 @@
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="23" t="s">
         <v>58</v>
       </c>
@@ -72904,7 +72910,7 @@
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="23" t="s">
         <v>59</v>
       </c>
@@ -72916,7 +72922,7 @@
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="23" t="s">
         <v>60</v>
       </c>
@@ -72928,7 +72934,7 @@
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="23" t="s">
         <v>61</v>
       </c>
@@ -72940,7 +72946,7 @@
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="23" t="s">
         <v>62</v>
       </c>
@@ -72952,7 +72958,7 @@
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="23" t="s">
         <v>63</v>
       </c>
@@ -72964,7 +72970,7 @@
       <c r="E27" s="22"/>
       <c r="F27" s="22"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="23" t="s">
         <v>65</v>
       </c>
@@ -72974,7 +72980,7 @@
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="23" t="s">
         <v>72</v>
       </c>
@@ -72984,7 +72990,7 @@
       <c r="E29" s="22"/>
       <c r="F29" s="22"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="23" t="s">
         <v>73</v>
       </c>
@@ -72994,7 +73000,7 @@
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="23" t="s">
         <v>74</v>
       </c>
@@ -73004,7 +73010,7 @@
       <c r="E31" s="22"/>
       <c r="F31" s="22"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="23" t="s">
         <v>75</v>
       </c>
@@ -73014,7 +73020,7 @@
       <c r="E32" s="22"/>
       <c r="F32" s="22"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="23" t="s">
         <v>76</v>
       </c>
@@ -73024,7 +73030,7 @@
       <c r="E33" s="22"/>
       <c r="F33" s="22"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="23" t="s">
         <v>77</v>
       </c>
@@ -73034,7 +73040,7 @@
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="23" t="s">
         <v>78</v>
       </c>
@@ -73044,7 +73050,7 @@
       <c r="E35" s="22"/>
       <c r="F35" s="22"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="23" t="s">
         <v>79</v>
       </c>
@@ -73054,7 +73060,7 @@
       <c r="E36" s="22"/>
       <c r="F36" s="22"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="23" t="s">
         <v>81</v>
       </c>
@@ -73064,7 +73070,7 @@
       <c r="E37" s="22"/>
       <c r="F37" s="22"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="23" t="s">
         <v>82</v>
       </c>
@@ -73074,7 +73080,7 @@
       <c r="E38" s="22"/>
       <c r="F38" s="22"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="23" t="s">
         <v>83</v>
       </c>
@@ -73084,7 +73090,7 @@
       <c r="E39" s="22"/>
       <c r="F39" s="22"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="23" t="s">
         <v>84</v>
       </c>
@@ -73094,7 +73100,7 @@
       <c r="E40" s="22"/>
       <c r="F40" s="22"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" s="23" t="s">
         <v>85</v>
       </c>
@@ -73104,7 +73110,7 @@
       <c r="E41" s="22"/>
       <c r="F41" s="22"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="23" t="s">
         <v>86</v>
       </c>
@@ -73114,7 +73120,7 @@
       <c r="E42" s="21"/>
       <c r="F42" s="21"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" s="23" t="s">
         <v>87</v>
       </c>
@@ -73124,7 +73130,7 @@
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" s="23" t="s">
         <v>88</v>
       </c>
@@ -73134,7 +73140,7 @@
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" s="27"/>
       <c r="B45" s="27">
         <v>43</v>
@@ -73142,1153 +73148,1153 @@
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" s="27"/>
       <c r="B46" s="27"/>
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" s="27"/>
       <c r="B47" s="27"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" s="27"/>
       <c r="B48" s="27"/>
     </row>
-    <row r="49" spans="3:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:6" s="27" customFormat="1">
       <c r="C49" s="21"/>
       <c r="D49" s="21"/>
       <c r="E49" s="20"/>
       <c r="F49" s="20"/>
     </row>
-    <row r="50" spans="3:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:6" s="27" customFormat="1">
       <c r="C50" s="21"/>
       <c r="D50" s="21"/>
       <c r="E50" s="20"/>
       <c r="F50" s="20"/>
     </row>
-    <row r="51" spans="3:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:6" s="27" customFormat="1">
       <c r="C51" s="21"/>
       <c r="D51" s="21"/>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
     </row>
-    <row r="52" spans="3:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:6" s="27" customFormat="1">
       <c r="C52" s="21"/>
       <c r="D52" s="21"/>
       <c r="E52" s="20"/>
       <c r="F52" s="20"/>
     </row>
-    <row r="53" spans="3:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:6" s="27" customFormat="1">
       <c r="C53" s="21"/>
       <c r="D53" s="21"/>
       <c r="E53" s="20"/>
       <c r="F53" s="20"/>
     </row>
-    <row r="54" spans="3:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:6" s="27" customFormat="1">
       <c r="C54" s="21"/>
       <c r="D54" s="21"/>
       <c r="E54" s="20"/>
       <c r="F54" s="20"/>
     </row>
-    <row r="55" spans="3:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:6" s="27" customFormat="1">
       <c r="C55" s="21"/>
       <c r="D55" s="21"/>
       <c r="E55" s="20"/>
       <c r="F55" s="20"/>
     </row>
-    <row r="56" spans="3:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:6" s="27" customFormat="1">
       <c r="C56" s="21"/>
       <c r="D56" s="21"/>
       <c r="E56" s="20"/>
       <c r="F56" s="20"/>
     </row>
-    <row r="57" spans="3:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:6" s="27" customFormat="1">
       <c r="C57" s="21"/>
       <c r="D57" s="21"/>
       <c r="E57" s="20"/>
       <c r="F57" s="20"/>
     </row>
-    <row r="58" spans="3:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:6" s="27" customFormat="1">
       <c r="C58" s="21"/>
       <c r="D58" s="21"/>
       <c r="E58" s="20"/>
       <c r="F58" s="20"/>
     </row>
-    <row r="59" spans="3:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:6" s="27" customFormat="1">
       <c r="C59" s="21"/>
       <c r="D59" s="21"/>
       <c r="E59" s="20"/>
       <c r="F59" s="20"/>
     </row>
-    <row r="60" spans="3:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:6" s="27" customFormat="1">
       <c r="C60" s="21"/>
       <c r="D60" s="21"/>
       <c r="E60" s="20"/>
       <c r="F60" s="20"/>
     </row>
-    <row r="61" spans="3:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:6" s="27" customFormat="1">
       <c r="C61" s="21"/>
       <c r="D61" s="21"/>
       <c r="E61" s="20"/>
       <c r="F61" s="20"/>
     </row>
-    <row r="62" spans="3:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:6" s="27" customFormat="1">
       <c r="C62" s="21"/>
       <c r="D62" s="21"/>
       <c r="E62" s="20"/>
       <c r="F62" s="20"/>
     </row>
-    <row r="63" spans="3:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:6" s="27" customFormat="1">
       <c r="C63" s="21"/>
       <c r="D63" s="21"/>
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
     </row>
-    <row r="64" spans="3:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:6" s="27" customFormat="1">
       <c r="C64" s="21"/>
       <c r="D64" s="21"/>
       <c r="E64" s="20"/>
       <c r="F64" s="20"/>
     </row>
-    <row r="65" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" s="27" customFormat="1">
       <c r="C65" s="21"/>
       <c r="D65" s="21"/>
       <c r="E65" s="20"/>
       <c r="F65" s="20"/>
     </row>
-    <row r="66" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" s="27" customFormat="1">
       <c r="C66" s="21"/>
       <c r="D66" s="21"/>
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
     </row>
-    <row r="67" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" s="27" customFormat="1">
       <c r="C67" s="21"/>
       <c r="D67" s="21"/>
       <c r="E67" s="20"/>
       <c r="F67" s="20"/>
     </row>
-    <row r="68" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" s="27" customFormat="1">
       <c r="C68" s="21"/>
       <c r="D68" s="21"/>
       <c r="E68" s="28"/>
       <c r="F68" s="28"/>
     </row>
-    <row r="69" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" s="27" customFormat="1">
       <c r="C69" s="21"/>
       <c r="D69" s="21"/>
       <c r="E69" s="28"/>
       <c r="F69" s="28"/>
     </row>
-    <row r="70" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" s="27" customFormat="1">
       <c r="C70" s="21"/>
       <c r="D70" s="21"/>
       <c r="E70" s="20"/>
       <c r="F70" s="20"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="A71" s="27"/>
       <c r="B71" s="27"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="A72" s="27"/>
       <c r="B72" s="27"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="A73" s="27"/>
       <c r="B73" s="27"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6">
       <c r="A74" s="27"/>
       <c r="B74" s="27"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6">
       <c r="A75" s="27"/>
       <c r="B75" s="27"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6">
       <c r="A76" s="27"/>
       <c r="B76" s="27"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6">
       <c r="A77" s="27"/>
       <c r="B77" s="27"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6">
       <c r="A78" s="27"/>
       <c r="B78" s="27"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="A79" s="27"/>
       <c r="B79" s="27"/>
     </row>
-    <row r="80" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" s="27" customFormat="1">
       <c r="C80" s="21"/>
       <c r="D80" s="21"/>
       <c r="E80" s="20"/>
       <c r="F80" s="20"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6">
       <c r="A81" s="27"/>
       <c r="B81" s="27"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6">
       <c r="A82" s="27"/>
       <c r="B82" s="27"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6">
       <c r="A83" s="27"/>
       <c r="B83" s="27"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6">
       <c r="A84" s="27"/>
       <c r="B84" s="27"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6">
       <c r="A85" s="27"/>
       <c r="B85" s="27"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6">
       <c r="A86" s="27"/>
       <c r="B86" s="27"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6">
       <c r="A87" s="27"/>
       <c r="B87" s="27"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6">
       <c r="A88" s="27"/>
       <c r="B88" s="27"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6">
       <c r="A89" s="27"/>
       <c r="B89" s="27"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6">
       <c r="A90" s="27"/>
       <c r="B90" s="27"/>
       <c r="E90" s="21"/>
       <c r="F90" s="21"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6">
       <c r="A91" s="27"/>
       <c r="B91" s="27"/>
       <c r="E91" s="21"/>
       <c r="F91" s="21"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6">
       <c r="A92" s="27"/>
       <c r="B92" s="27"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6">
       <c r="A93" s="27"/>
       <c r="B93" s="27"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6">
       <c r="A94" s="27"/>
       <c r="B94" s="27"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6">
       <c r="A95" s="27"/>
       <c r="B95" s="27"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6">
       <c r="A96" s="27"/>
       <c r="B96" s="27"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2">
       <c r="A97" s="27"/>
       <c r="B97" s="27"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2">
       <c r="A98" s="27"/>
       <c r="B98" s="27"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2">
       <c r="A99" s="27"/>
       <c r="B99" s="27"/>
     </row>
-    <row r="100" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" s="21" customFormat="1">
       <c r="A100" s="27"/>
       <c r="B100" s="27"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2">
       <c r="A101" s="27"/>
       <c r="B101" s="27"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2">
       <c r="A102" s="27"/>
       <c r="B102" s="27"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2">
       <c r="A103" s="27"/>
       <c r="B103" s="27"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2">
       <c r="A104" s="27"/>
       <c r="B104" s="27"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2">
       <c r="A105" s="27"/>
       <c r="B105" s="27"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2">
       <c r="A106" s="27"/>
       <c r="B106" s="27"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2">
       <c r="A107" s="27"/>
       <c r="B107" s="27"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2">
       <c r="A108" s="27"/>
       <c r="B108" s="27"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2">
       <c r="A109" s="27"/>
       <c r="B109" s="27"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2">
       <c r="A110" s="27"/>
       <c r="B110" s="27"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2">
       <c r="A111" s="27"/>
       <c r="B111" s="27"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2">
       <c r="A112" s="27"/>
       <c r="B112" s="27"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2">
       <c r="A113" s="27"/>
       <c r="B113" s="27"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2">
       <c r="A114" s="27"/>
       <c r="B114" s="27"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2">
       <c r="A115" s="27"/>
       <c r="B115" s="27"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2">
       <c r="A116" s="27"/>
       <c r="B116" s="27"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2">
       <c r="A117" s="27"/>
       <c r="B117" s="27"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2">
       <c r="A118" s="27"/>
       <c r="B118" s="27"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2">
       <c r="A119" s="27"/>
       <c r="B119" s="27"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2">
       <c r="A120" s="27"/>
       <c r="B120" s="27"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2">
       <c r="A121" s="27"/>
       <c r="B121" s="27"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2">
       <c r="A122" s="27"/>
       <c r="B122" s="27"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2">
       <c r="A123" s="27"/>
       <c r="B123" s="27"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2">
       <c r="A124" s="27"/>
       <c r="B124" s="27"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2">
       <c r="A125" s="27"/>
       <c r="B125" s="27"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2">
       <c r="A126" s="27"/>
       <c r="B126" s="27"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2">
       <c r="A127" s="27"/>
       <c r="B127" s="27"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2">
       <c r="A128" s="27"/>
       <c r="B128" s="27"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6">
       <c r="A129" s="27"/>
       <c r="B129" s="27"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6">
       <c r="A130" s="27"/>
       <c r="B130" s="27"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6">
       <c r="A131" s="27"/>
       <c r="B131" s="27"/>
     </row>
-    <row r="132" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" s="21" customFormat="1">
       <c r="A132" s="27"/>
       <c r="B132" s="27"/>
       <c r="E132" s="20"/>
       <c r="F132" s="20"/>
     </row>
-    <row r="133" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" s="21" customFormat="1">
       <c r="A133" s="27"/>
       <c r="B133" s="27"/>
       <c r="E133" s="20"/>
       <c r="F133" s="20"/>
     </row>
-    <row r="134" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" s="21" customFormat="1">
       <c r="A134" s="27"/>
       <c r="B134" s="27"/>
       <c r="E134" s="20"/>
       <c r="F134" s="20"/>
     </row>
-    <row r="135" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" s="21" customFormat="1">
       <c r="A135" s="27"/>
       <c r="B135" s="27"/>
       <c r="E135" s="20"/>
       <c r="F135" s="20"/>
     </row>
-    <row r="136" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" s="21" customFormat="1">
       <c r="A136" s="27"/>
       <c r="B136" s="27"/>
       <c r="E136" s="20"/>
       <c r="F136" s="20"/>
     </row>
-    <row r="137" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" s="21" customFormat="1">
       <c r="A137" s="27"/>
       <c r="B137" s="27"/>
       <c r="E137" s="20"/>
       <c r="F137" s="20"/>
     </row>
-    <row r="138" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" s="21" customFormat="1">
       <c r="A138" s="27"/>
       <c r="B138" s="27"/>
       <c r="E138" s="20"/>
       <c r="F138" s="20"/>
     </row>
-    <row r="139" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" s="21" customFormat="1">
       <c r="A139" s="27"/>
       <c r="B139" s="27"/>
       <c r="E139" s="20"/>
       <c r="F139" s="20"/>
     </row>
-    <row r="140" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" s="21" customFormat="1">
       <c r="A140" s="27"/>
       <c r="B140" s="27"/>
       <c r="E140" s="20"/>
       <c r="F140" s="20"/>
     </row>
-    <row r="141" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" s="21" customFormat="1">
       <c r="A141" s="27"/>
       <c r="B141" s="27"/>
       <c r="E141" s="20"/>
       <c r="F141" s="20"/>
     </row>
-    <row r="142" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" s="21" customFormat="1">
       <c r="A142" s="27"/>
       <c r="B142" s="27"/>
       <c r="E142" s="20"/>
       <c r="F142" s="20"/>
     </row>
-    <row r="143" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" s="21" customFormat="1">
       <c r="A143" s="27"/>
       <c r="B143" s="27"/>
       <c r="E143" s="20"/>
       <c r="F143" s="20"/>
     </row>
-    <row r="144" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" s="21" customFormat="1">
       <c r="A144" s="27"/>
       <c r="B144" s="27"/>
       <c r="E144" s="20"/>
       <c r="F144" s="20"/>
     </row>
-    <row r="145" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" s="21" customFormat="1">
       <c r="A145" s="27"/>
       <c r="B145" s="27"/>
       <c r="E145" s="20"/>
       <c r="F145" s="20"/>
     </row>
-    <row r="146" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" s="21" customFormat="1">
       <c r="A146" s="27"/>
       <c r="B146" s="27"/>
       <c r="E146" s="20"/>
       <c r="F146" s="20"/>
     </row>
-    <row r="147" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" s="21" customFormat="1">
       <c r="A147" s="27"/>
       <c r="B147" s="27"/>
       <c r="E147" s="20"/>
       <c r="F147" s="20"/>
     </row>
-    <row r="148" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" s="21" customFormat="1">
       <c r="A148" s="27"/>
       <c r="B148" s="27"/>
       <c r="E148" s="20"/>
       <c r="F148" s="20"/>
     </row>
-    <row r="149" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" s="21" customFormat="1">
       <c r="A149" s="27"/>
       <c r="B149" s="27"/>
       <c r="E149" s="20"/>
       <c r="F149" s="20"/>
     </row>
-    <row r="150" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" s="21" customFormat="1">
       <c r="A150" s="27"/>
       <c r="B150" s="27"/>
       <c r="E150" s="20"/>
       <c r="F150" s="20"/>
     </row>
-    <row r="151" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" s="21" customFormat="1">
       <c r="A151" s="27"/>
       <c r="B151" s="27"/>
       <c r="E151" s="20"/>
       <c r="F151" s="20"/>
     </row>
-    <row r="152" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" s="21" customFormat="1">
       <c r="A152" s="27"/>
       <c r="B152" s="27"/>
       <c r="E152" s="20"/>
       <c r="F152" s="20"/>
     </row>
-    <row r="153" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" s="21" customFormat="1">
       <c r="A153" s="27"/>
       <c r="B153" s="27"/>
       <c r="E153" s="20"/>
       <c r="F153" s="20"/>
     </row>
-    <row r="154" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" s="21" customFormat="1">
       <c r="A154" s="27"/>
       <c r="B154" s="27"/>
       <c r="E154" s="20"/>
       <c r="F154" s="20"/>
     </row>
-    <row r="155" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" s="21" customFormat="1">
       <c r="A155" s="27"/>
       <c r="B155" s="27"/>
       <c r="E155" s="20"/>
       <c r="F155" s="20"/>
     </row>
-    <row r="156" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" s="21" customFormat="1">
       <c r="A156" s="27"/>
       <c r="B156" s="27"/>
       <c r="E156" s="20"/>
       <c r="F156" s="20"/>
     </row>
-    <row r="157" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" s="21" customFormat="1">
       <c r="A157" s="27"/>
       <c r="B157" s="27"/>
       <c r="E157" s="20"/>
       <c r="F157" s="20"/>
     </row>
-    <row r="158" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" s="21" customFormat="1">
       <c r="A158" s="27"/>
       <c r="B158" s="27"/>
       <c r="E158" s="20"/>
       <c r="F158" s="20"/>
     </row>
-    <row r="159" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" s="21" customFormat="1">
       <c r="A159" s="27"/>
       <c r="B159" s="27"/>
       <c r="E159" s="20"/>
       <c r="F159" s="20"/>
     </row>
-    <row r="160" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" s="21" customFormat="1">
       <c r="A160" s="27"/>
       <c r="B160" s="27"/>
       <c r="E160" s="20"/>
       <c r="F160" s="20"/>
     </row>
-    <row r="161" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" s="21" customFormat="1">
       <c r="A161" s="27"/>
       <c r="B161" s="27"/>
       <c r="E161" s="20"/>
       <c r="F161" s="20"/>
     </row>
-    <row r="162" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" s="21" customFormat="1">
       <c r="A162" s="27"/>
       <c r="B162" s="27"/>
       <c r="E162" s="20"/>
       <c r="F162" s="20"/>
     </row>
-    <row r="163" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" s="21" customFormat="1">
       <c r="A163" s="27"/>
       <c r="B163" s="27"/>
       <c r="E163" s="20"/>
       <c r="F163" s="20"/>
     </row>
-    <row r="164" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" s="21" customFormat="1">
       <c r="A164" s="27"/>
       <c r="B164" s="27"/>
       <c r="E164" s="20"/>
       <c r="F164" s="20"/>
     </row>
-    <row r="165" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" s="21" customFormat="1">
       <c r="A165" s="27"/>
       <c r="B165" s="27"/>
       <c r="E165" s="20"/>
       <c r="F165" s="20"/>
     </row>
-    <row r="166" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" s="21" customFormat="1">
       <c r="A166" s="27"/>
       <c r="B166" s="27"/>
       <c r="E166" s="20"/>
       <c r="F166" s="20"/>
     </row>
-    <row r="167" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" s="21" customFormat="1">
       <c r="A167" s="27"/>
       <c r="B167" s="27"/>
       <c r="E167" s="20"/>
       <c r="F167" s="20"/>
     </row>
-    <row r="168" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" s="21" customFormat="1">
       <c r="A168" s="27"/>
       <c r="B168" s="27"/>
       <c r="E168" s="20"/>
       <c r="F168" s="20"/>
     </row>
-    <row r="169" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" s="21" customFormat="1">
       <c r="A169" s="27"/>
       <c r="B169" s="27"/>
       <c r="E169" s="20"/>
       <c r="F169" s="20"/>
     </row>
-    <row r="170" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" s="21" customFormat="1">
       <c r="A170" s="27"/>
       <c r="B170" s="27"/>
       <c r="E170" s="20"/>
       <c r="F170" s="20"/>
     </row>
-    <row r="171" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" s="21" customFormat="1">
       <c r="A171" s="27"/>
       <c r="B171" s="27"/>
       <c r="E171" s="20"/>
       <c r="F171" s="20"/>
     </row>
-    <row r="172" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" s="21" customFormat="1">
       <c r="A172" s="27"/>
       <c r="B172" s="27"/>
       <c r="E172" s="20"/>
       <c r="F172" s="20"/>
     </row>
-    <row r="173" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" s="21" customFormat="1">
       <c r="A173" s="27"/>
       <c r="B173" s="27"/>
       <c r="E173" s="20"/>
       <c r="F173" s="20"/>
     </row>
-    <row r="174" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" s="21" customFormat="1">
       <c r="A174" s="27"/>
       <c r="B174" s="27"/>
       <c r="E174" s="20"/>
       <c r="F174" s="20"/>
     </row>
-    <row r="175" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" s="21" customFormat="1">
       <c r="A175" s="27"/>
       <c r="B175" s="27"/>
       <c r="E175" s="20"/>
       <c r="F175" s="20"/>
     </row>
-    <row r="176" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" s="21" customFormat="1">
       <c r="A176" s="27"/>
       <c r="B176" s="27"/>
       <c r="E176" s="20"/>
       <c r="F176" s="20"/>
     </row>
-    <row r="177" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" s="21" customFormat="1">
       <c r="A177" s="27"/>
       <c r="B177" s="27"/>
       <c r="E177" s="20"/>
       <c r="F177" s="20"/>
     </row>
-    <row r="178" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" s="21" customFormat="1">
       <c r="A178" s="27"/>
       <c r="B178" s="27"/>
       <c r="E178" s="20"/>
       <c r="F178" s="20"/>
     </row>
-    <row r="179" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" s="21" customFormat="1">
       <c r="A179" s="27"/>
       <c r="B179" s="27"/>
       <c r="E179" s="20"/>
       <c r="F179" s="20"/>
     </row>
-    <row r="180" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" s="21" customFormat="1">
       <c r="A180" s="27"/>
       <c r="B180" s="27"/>
       <c r="E180" s="20"/>
       <c r="F180" s="20"/>
     </row>
-    <row r="181" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" s="21" customFormat="1">
       <c r="A181" s="27"/>
       <c r="B181" s="27"/>
       <c r="E181" s="20"/>
       <c r="F181" s="20"/>
     </row>
-    <row r="182" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" s="21" customFormat="1">
       <c r="A182" s="27"/>
       <c r="B182" s="27"/>
       <c r="E182" s="20"/>
       <c r="F182" s="20"/>
     </row>
-    <row r="183" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" s="21" customFormat="1">
       <c r="A183" s="27"/>
       <c r="B183" s="27"/>
       <c r="E183" s="20"/>
       <c r="F183" s="20"/>
     </row>
-    <row r="184" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" s="21" customFormat="1">
       <c r="A184" s="27"/>
       <c r="B184" s="27"/>
       <c r="E184" s="20"/>
       <c r="F184" s="20"/>
     </row>
-    <row r="185" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" s="21" customFormat="1">
       <c r="A185" s="27"/>
       <c r="B185" s="27"/>
       <c r="E185" s="20"/>
       <c r="F185" s="20"/>
     </row>
-    <row r="186" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" s="21" customFormat="1">
       <c r="A186" s="27"/>
       <c r="B186" s="27"/>
       <c r="E186" s="20"/>
       <c r="F186" s="20"/>
     </row>
-    <row r="187" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" s="21" customFormat="1">
       <c r="A187" s="27"/>
       <c r="B187" s="27"/>
       <c r="E187" s="20"/>
       <c r="F187" s="20"/>
     </row>
-    <row r="188" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" s="21" customFormat="1">
       <c r="A188" s="27"/>
       <c r="B188" s="27"/>
       <c r="E188" s="20"/>
       <c r="F188" s="20"/>
     </row>
-    <row r="189" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" s="21" customFormat="1">
       <c r="A189" s="27"/>
       <c r="B189" s="27"/>
       <c r="E189" s="20"/>
       <c r="F189" s="20"/>
     </row>
-    <row r="190" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" s="21" customFormat="1">
       <c r="A190" s="27"/>
       <c r="B190" s="27"/>
       <c r="E190" s="20"/>
       <c r="F190" s="20"/>
     </row>
-    <row r="191" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" s="21" customFormat="1">
       <c r="A191" s="27"/>
       <c r="B191" s="27"/>
       <c r="E191" s="20"/>
       <c r="F191" s="20"/>
     </row>
-    <row r="192" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" s="21" customFormat="1">
       <c r="A192" s="27"/>
       <c r="B192" s="27"/>
       <c r="E192" s="20"/>
       <c r="F192" s="20"/>
     </row>
-    <row r="193" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" s="21" customFormat="1">
       <c r="A193" s="27"/>
       <c r="B193" s="27"/>
       <c r="E193" s="20"/>
       <c r="F193" s="20"/>
     </row>
-    <row r="194" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" s="21" customFormat="1">
       <c r="A194" s="27"/>
       <c r="B194" s="27"/>
       <c r="E194" s="20"/>
       <c r="F194" s="20"/>
     </row>
-    <row r="195" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" s="21" customFormat="1">
       <c r="A195" s="27"/>
       <c r="B195" s="27"/>
       <c r="E195" s="20"/>
       <c r="F195" s="20"/>
     </row>
-    <row r="196" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" s="21" customFormat="1">
       <c r="A196" s="27"/>
       <c r="B196" s="27"/>
       <c r="E196" s="20"/>
       <c r="F196" s="20"/>
     </row>
-    <row r="197" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" s="21" customFormat="1">
       <c r="A197" s="27"/>
       <c r="B197" s="27"/>
       <c r="E197" s="20"/>
       <c r="F197" s="20"/>
     </row>
-    <row r="198" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" s="21" customFormat="1">
       <c r="A198" s="27"/>
       <c r="B198" s="27"/>
       <c r="E198" s="20"/>
       <c r="F198" s="20"/>
     </row>
-    <row r="199" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" s="21" customFormat="1">
       <c r="A199" s="27"/>
       <c r="B199" s="27"/>
       <c r="E199" s="20"/>
       <c r="F199" s="20"/>
     </row>
-    <row r="200" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" s="21" customFormat="1">
       <c r="A200" s="27"/>
       <c r="B200" s="27"/>
       <c r="E200" s="20"/>
       <c r="F200" s="20"/>
     </row>
-    <row r="201" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" s="21" customFormat="1">
       <c r="A201" s="27"/>
       <c r="B201" s="27"/>
       <c r="E201" s="20"/>
       <c r="F201" s="20"/>
     </row>
-    <row r="202" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" s="21" customFormat="1">
       <c r="A202" s="27"/>
       <c r="B202" s="27"/>
       <c r="E202" s="20"/>
       <c r="F202" s="20"/>
     </row>
-    <row r="203" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" s="21" customFormat="1">
       <c r="A203" s="27"/>
       <c r="B203" s="27"/>
       <c r="E203" s="20"/>
       <c r="F203" s="20"/>
     </row>
-    <row r="204" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" s="21" customFormat="1">
       <c r="A204" s="27"/>
       <c r="B204" s="27"/>
       <c r="E204" s="20"/>
       <c r="F204" s="20"/>
     </row>
-    <row r="205" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" s="21" customFormat="1">
       <c r="A205" s="27"/>
       <c r="B205" s="27"/>
       <c r="E205" s="20"/>
       <c r="F205" s="20"/>
     </row>
-    <row r="206" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" s="21" customFormat="1">
       <c r="A206" s="27"/>
       <c r="B206" s="27"/>
       <c r="E206" s="20"/>
       <c r="F206" s="20"/>
     </row>
-    <row r="207" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" s="21" customFormat="1">
       <c r="A207" s="27"/>
       <c r="B207" s="27"/>
       <c r="E207" s="20"/>
       <c r="F207" s="20"/>
     </row>
-    <row r="208" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" s="21" customFormat="1">
       <c r="A208" s="27"/>
       <c r="B208" s="27"/>
       <c r="E208" s="20"/>
       <c r="F208" s="20"/>
     </row>
-    <row r="209" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" s="21" customFormat="1">
       <c r="A209" s="27"/>
       <c r="B209" s="27"/>
       <c r="E209" s="20"/>
       <c r="F209" s="20"/>
     </row>
-    <row r="210" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" s="21" customFormat="1">
       <c r="A210" s="27"/>
       <c r="B210" s="27"/>
       <c r="E210" s="20"/>
       <c r="F210" s="20"/>
     </row>
-    <row r="211" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" s="21" customFormat="1">
       <c r="A211" s="27"/>
       <c r="B211" s="27"/>
       <c r="E211" s="20"/>
       <c r="F211" s="20"/>
     </row>
-    <row r="212" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" s="21" customFormat="1">
       <c r="A212" s="27"/>
       <c r="B212" s="27"/>
       <c r="E212" s="20"/>
       <c r="F212" s="20"/>
     </row>
-    <row r="213" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" s="21" customFormat="1">
       <c r="A213" s="27"/>
       <c r="B213" s="27"/>
       <c r="E213" s="20"/>
       <c r="F213" s="20"/>
     </row>
-    <row r="214" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" s="21" customFormat="1">
       <c r="A214" s="27"/>
       <c r="B214" s="27"/>
       <c r="E214" s="20"/>
       <c r="F214" s="20"/>
     </row>
-    <row r="215" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" s="21" customFormat="1">
       <c r="A215" s="27"/>
       <c r="B215" s="27"/>
       <c r="E215" s="20"/>
       <c r="F215" s="20"/>
     </row>
-    <row r="216" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" s="21" customFormat="1">
       <c r="A216" s="27"/>
       <c r="B216" s="27"/>
       <c r="E216" s="20"/>
       <c r="F216" s="20"/>
     </row>
-    <row r="217" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" s="21" customFormat="1">
       <c r="A217" s="27"/>
       <c r="B217" s="27"/>
       <c r="E217" s="20"/>
       <c r="F217" s="20"/>
     </row>
-    <row r="218" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" s="21" customFormat="1">
       <c r="A218" s="27"/>
       <c r="B218" s="27"/>
       <c r="E218" s="20"/>
       <c r="F218" s="20"/>
     </row>
-    <row r="219" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" s="21" customFormat="1">
       <c r="A219" s="27"/>
       <c r="B219" s="27"/>
       <c r="E219" s="20"/>
       <c r="F219" s="20"/>
     </row>
-    <row r="220" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" s="21" customFormat="1">
       <c r="A220" s="27"/>
       <c r="B220" s="27"/>
       <c r="E220" s="20"/>
       <c r="F220" s="20"/>
     </row>
-    <row r="221" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" s="21" customFormat="1">
       <c r="A221" s="27"/>
       <c r="B221" s="27"/>
       <c r="E221" s="20"/>
       <c r="F221" s="20"/>
     </row>
-    <row r="222" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" s="21" customFormat="1">
       <c r="A222" s="27"/>
       <c r="B222" s="27"/>
       <c r="E222" s="20"/>
       <c r="F222" s="20"/>
     </row>
-    <row r="223" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" s="21" customFormat="1">
       <c r="A223" s="27"/>
       <c r="B223" s="27"/>
       <c r="E223" s="20"/>
       <c r="F223" s="20"/>
     </row>
-    <row r="224" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" s="21" customFormat="1">
       <c r="A224" s="27"/>
       <c r="B224" s="27"/>
       <c r="E224" s="20"/>
       <c r="F224" s="20"/>
     </row>
-    <row r="225" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" s="21" customFormat="1">
       <c r="A225" s="27"/>
       <c r="B225" s="27"/>
       <c r="E225" s="20"/>
       <c r="F225" s="20"/>
     </row>
-    <row r="226" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" s="21" customFormat="1">
       <c r="A226" s="27"/>
       <c r="B226" s="27"/>
       <c r="E226" s="20"/>
       <c r="F226" s="20"/>
     </row>
-    <row r="227" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" s="21" customFormat="1">
       <c r="A227" s="27"/>
       <c r="B227" s="27"/>
       <c r="E227" s="20"/>
       <c r="F227" s="20"/>
     </row>
-    <row r="228" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" s="21" customFormat="1">
       <c r="A228" s="27"/>
       <c r="B228" s="27"/>
       <c r="E228" s="20"/>
       <c r="F228" s="20"/>
     </row>
-    <row r="229" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" s="21" customFormat="1">
       <c r="A229" s="27"/>
       <c r="B229" s="27"/>
       <c r="E229" s="20"/>
       <c r="F229" s="20"/>
     </row>
-    <row r="230" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" s="21" customFormat="1">
       <c r="A230" s="27"/>
       <c r="B230" s="27"/>
       <c r="E230" s="20"/>
       <c r="F230" s="20"/>
     </row>
-    <row r="231" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" s="21" customFormat="1">
       <c r="A231" s="27"/>
       <c r="B231" s="27"/>
       <c r="E231" s="20"/>
       <c r="F231" s="20"/>
     </row>
-    <row r="232" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" s="21" customFormat="1">
       <c r="A232" s="27"/>
       <c r="B232" s="27"/>
       <c r="E232" s="20"/>
       <c r="F232" s="20"/>
     </row>
-    <row r="233" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" s="21" customFormat="1">
       <c r="A233" s="27"/>
       <c r="B233" s="27"/>
       <c r="E233" s="20"/>
       <c r="F233" s="20"/>
     </row>
-    <row r="234" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" s="21" customFormat="1">
       <c r="A234" s="27"/>
       <c r="B234" s="27"/>
       <c r="E234" s="20"/>
       <c r="F234" s="20"/>
     </row>
-    <row r="235" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" s="21" customFormat="1">
       <c r="A235" s="27"/>
       <c r="B235" s="27"/>
       <c r="E235" s="20"/>
       <c r="F235" s="20"/>
     </row>
-    <row r="236" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" s="21" customFormat="1">
       <c r="A236" s="27"/>
       <c r="B236" s="27"/>
       <c r="E236" s="20"/>
       <c r="F236" s="20"/>
     </row>
-    <row r="237" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" s="21" customFormat="1">
       <c r="A237" s="27"/>
       <c r="B237" s="27"/>
       <c r="E237" s="20"/>
       <c r="F237" s="20"/>
     </row>
-    <row r="238" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" s="21" customFormat="1">
       <c r="A238" s="27"/>
       <c r="B238" s="27"/>
       <c r="E238" s="20"/>
       <c r="F238" s="20"/>
     </row>
-    <row r="239" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" s="21" customFormat="1">
       <c r="A239" s="27"/>
       <c r="B239" s="27"/>
       <c r="E239" s="20"/>
       <c r="F239" s="20"/>
     </row>
-    <row r="240" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" s="21" customFormat="1">
       <c r="A240" s="27"/>
       <c r="B240" s="27"/>
       <c r="E240" s="20"/>
       <c r="F240" s="20"/>
     </row>
-    <row r="241" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" s="21" customFormat="1">
       <c r="A241" s="27"/>
       <c r="B241" s="27"/>
       <c r="E241" s="20"/>
       <c r="F241" s="20"/>
     </row>
-    <row r="242" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" s="21" customFormat="1">
       <c r="A242" s="27"/>
       <c r="B242" s="27"/>
       <c r="E242" s="20"/>
       <c r="F242" s="20"/>
     </row>
-    <row r="243" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" s="21" customFormat="1">
       <c r="A243" s="27"/>
       <c r="B243" s="27"/>
       <c r="E243" s="20"/>
       <c r="F243" s="20"/>
     </row>
-    <row r="244" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" s="21" customFormat="1">
       <c r="A244" s="27"/>
       <c r="B244" s="27"/>
       <c r="E244" s="20"/>
       <c r="F244" s="20"/>
     </row>
-    <row r="245" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" s="21" customFormat="1">
       <c r="A245" s="27"/>
       <c r="B245" s="27"/>
       <c r="E245" s="20"/>
       <c r="F245" s="20"/>
     </row>
-    <row r="246" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" s="21" customFormat="1">
       <c r="A246" s="27"/>
       <c r="B246" s="27"/>
       <c r="E246" s="20"/>
       <c r="F246" s="20"/>
     </row>
-    <row r="247" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" s="21" customFormat="1">
       <c r="A247" s="27"/>
       <c r="B247" s="27"/>
       <c r="E247" s="20"/>
       <c r="F247" s="20"/>
     </row>
-    <row r="248" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" s="21" customFormat="1">
       <c r="A248" s="27"/>
       <c r="B248" s="27"/>
       <c r="E248" s="20"/>
       <c r="F248" s="20"/>
     </row>
-    <row r="249" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" s="21" customFormat="1">
       <c r="A249" s="27"/>
       <c r="B249" s="27"/>
       <c r="E249" s="20"/>
       <c r="F249" s="20"/>
     </row>
-    <row r="250" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" s="21" customFormat="1">
       <c r="A250" s="27"/>
       <c r="B250" s="27"/>
       <c r="E250" s="20"/>
       <c r="F250" s="20"/>
     </row>
-    <row r="251" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" s="21" customFormat="1">
       <c r="A251" s="27"/>
       <c r="B251" s="27"/>
       <c r="E251" s="20"/>
       <c r="F251" s="20"/>
     </row>
-    <row r="252" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" s="21" customFormat="1">
       <c r="A252" s="27"/>
       <c r="B252" s="27"/>
       <c r="E252" s="20"/>
       <c r="F252" s="20"/>
     </row>
-    <row r="253" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" s="21" customFormat="1">
       <c r="A253" s="27"/>
       <c r="B253" s="27"/>
       <c r="E253" s="20"/>
       <c r="F253" s="20"/>
     </row>
-    <row r="254" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" s="21" customFormat="1">
       <c r="A254" s="27"/>
       <c r="B254" s="27"/>
       <c r="E254" s="20"/>
       <c r="F254" s="20"/>
     </row>
-    <row r="255" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" s="21" customFormat="1">
       <c r="A255" s="27"/>
       <c r="B255" s="27"/>
       <c r="E255" s="20"/>
       <c r="F255" s="20"/>
     </row>
-    <row r="256" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" s="21" customFormat="1">
       <c r="A256" s="27"/>
       <c r="B256" s="27"/>
       <c r="E256" s="20"/>
       <c r="F256" s="20"/>
     </row>
-    <row r="257" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" s="21" customFormat="1">
       <c r="A257" s="27"/>
       <c r="B257" s="27"/>
       <c r="E257" s="20"/>
@@ -74322,12 +74328,12 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="10" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="e">
         <f>IF(ISBLANK(#REF!),"",#REF!)</f>
         <v>#REF!</v>
@@ -74369,7 +74375,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="e">
         <f>IF(AND(#REF!="",#REF!=#REF!),"1",IF(AND(#REF!="S",#REF!=#REF!),"1",IF(AND(#REF!="T",#REF!=#REF!),"1","")))</f>
         <v>#REF!</v>
@@ -74411,7 +74417,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="e">
         <f>IF(AND(A2="",#REF!="",#REF!=#REF!),"2",IF(AND(#REF!="",#REF!=#REF!),", 2",IF(AND(A2="",#REF!="S",#REF!=#REF!),"2",IF(AND(#REF!="S",#REF!=#REF!),", 2",IF(AND(A2="",#REF!="T",#REF!=#REF!),"2",IF(AND(#REF!="T",#REF!=#REF!),", 2",""))))))</f>
         <v>#REF!</v>
@@ -74453,7 +74459,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="2" t="e">
         <f>IF(AND(A2="",A3="",#REF!="",#REF!=#REF!),"3",IF(AND(#REF!="",#REF!=#REF!),", 3",IF(AND(A2="",A3="",#REF!="S",#REF!=#REF!),"3",IF(AND(#REF!="S",#REF!=#REF!),", 3",IF(AND(A2="",A3="",#REF!="T",#REF!=#REF!),"3",IF(AND(#REF!="T",#REF!=#REF!),", 3",""))))))</f>
         <v>#REF!</v>
@@ -74495,7 +74501,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="2" t="e">
         <f>IF(AND(A2="",A3="", A4="",#REF!="",#REF!=#REF!),"4",IF(AND(#REF!="",#REF!=#REF!),", 4",IF(AND(A2="",A3="", A4="",#REF!="S",#REF!=#REF!),"4",IF(AND(#REF!="S",#REF!=#REF!),", 4",IF(AND(A2="",A3="", A4="",#REF!="T",#REF!=#REF!),"4",IF(AND(#REF!="T",#REF!=#REF!),", 4",""))))))</f>
         <v>#REF!</v>
@@ -74537,7 +74543,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="2" t="e">
         <f>IF(AND(A2="",A3="", A4="",A5="",#REF!="",#REF!=#REF!),"5",IF(AND(#REF!="",#REF!=#REF!),", 5",IF(AND(A2="",A3="", A4="",A5="",#REF!="S",#REF!=#REF!),"5",IF(AND(#REF!="S",#REF!=#REF!),", 5",IF(AND(A2="",A3="", A4="",A5="",#REF!="T",#REF!=#REF!),"5",IF(AND(#REF!="T",#REF!=#REF!),", 5",""))))))</f>
         <v>#REF!</v>
@@ -74579,7 +74585,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="2" t="e">
         <f>IF(AND(A2="",A3="", A4="",A5="",A6="",#REF!="",#REF!=#REF!),"6",IF(AND(#REF!="",#REF!=#REF!),", 6",IF(AND(A2="",A3="", A4="",A5="",A6="",#REF!="S",#REF!=#REF!),"6",IF(AND(#REF!="S",#REF!=#REF!),", 6",IF(AND(A2="",A3="", A4="",A5="",A6="",#REF!="T",#REF!=#REF!),"6",IF(AND(#REF!="T",#REF!=#REF!),", 6",""))))))</f>
         <v>#REF!</v>
@@ -74621,7 +74627,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="2" t="e">
         <f>IF(AND(A2="",A3="", A4="",A5="",A6="",A7="",#REF!="",#REF!=#REF!),"7",IF(AND(#REF!="",#REF!=#REF!),", 7",IF(AND(A2="",A3="", A4="",A5="",A6="",A7="",#REF!="S",#REF!=#REF!),"7",IF(AND(#REF!="S",#REF!=#REF!),", 7",IF(AND(A2="",A3="", A4="",A5="",A6="",A7="",#REF!="T",#REF!=#REF!),"7",IF(AND(#REF!="T",#REF!=#REF!),", 7",""))))))</f>
         <v>#REF!</v>
@@ -74663,7 +74669,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="2" t="e">
         <f>IF(AND(A2="",A3="", A4="",A5="",A6="",A7="",A8="",#REF!="",#REF!=#REF!),"8",IF(AND(#REF!="",#REF!=#REF!),", 8",IF(AND(A2="",A3="", A4="",A5="",A6="",A7="",A8="",#REF!="S",#REF!=#REF!),"8",IF(AND(#REF!="S",#REF!=#REF!),", 8",IF(AND(A2="",A3="", A4="",A5="",A6="",A7="",A8="",#REF!="T",#REF!=#REF!),"8",IF(AND(#REF!="T",#REF!=#REF!),", 8",""))))))</f>
         <v>#REF!</v>
@@ -74705,7 +74711,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="2" t="e">
         <f>IF(AND(A2="",A3="", A4="",A5="",A6="",A7="",A8="",A9="",#REF!="",#REF!=#REF!),"9",IF(AND(#REF!="",#REF!=#REF!),", 9",IF(AND(A2="",A3="", A4="",A5="",A6="",A7="",A8="",A9="",#REF!="S",#REF!=#REF!),"9",IF(AND(#REF!="S",#REF!=#REF!),", 9",IF(AND(A2="",A3="", A4="",A5="",A6="",A7="",A8="",A9="",#REF!="T",#REF!=#REF!),"9",IF(AND(#REF!="T",#REF!=#REF!),", 9",""))))))</f>
         <v>#REF!</v>
@@ -74747,7 +74753,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="2" t="e">
         <f>IF(AND(A2="",A3="", A4="",A5="",A6="",A7="",A8="",A9="",A10="",#REF!="",#REF!=#REF!),"10",IF(AND(#REF!="",#REF!=#REF!),", 10",IF(AND(A2="",A3="", A4="",A5="",A6="",A7="",A8="",A9="",A10="",#REF!="S",#REF!=#REF!),"10",IF(AND(#REF!="S",#REF!=#REF!),", 10",IF(AND(A2="",A3="", A4="",A5="",A6="",A7="",A8="",A9="",A10="",#REF!="T",#REF!=#REF!),"10",IF(AND(#REF!="T",#REF!=#REF!),", 10",""))))))</f>
         <v>#REF!</v>
@@ -74789,7 +74795,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="2" t="e">
         <f>IF(AND(A2="",A3="", A4="",A5="",A6="",A7="",A8="",A9="",A10="",A11="",#REF!="",#REF!=#REF!),"11",IF(AND(#REF!="",#REF!=#REF!),", 11",IF(AND(A2="",A3="", A4="",A5="",A6="",A7="",A8="",A9="",A10="",A11="",#REF!="S",#REF!=#REF!),"11",IF(AND(#REF!="S",#REF!=#REF!),", 11",IF(AND(A2="",A3="", A4="",A5="",A6="",A7="",A8="",A9="",A10="",A11="",#REF!="T",#REF!=#REF!),"11",IF(AND(#REF!="T",#REF!=#REF!),", 11",""))))))</f>
         <v>#REF!</v>
@@ -74831,7 +74837,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="2" t="e">
         <f>IF(AND(A2="",A3="", A4="",A5="",A6="",A7="",A8="",A9="",A10="",A11="",A12="",#REF!="",#REF!=#REF!),"12",IF(AND(#REF!="",#REF!=#REF!),", 12",IF(AND(A2="",A3="", A4="",A5="",A6="",A7="",A8="",A9="",A10="",A11="",A12="",#REF!="S",#REF!=#REF!),"12",IF(AND(#REF!="S",#REF!=#REF!),", 12",IF(AND(A2="",A3="", A4="",A5="",A6="",A7="",A8="",A9="",A10="",A11="",A12="",#REF!="T",#REF!=#REF!),"12",IF(AND(#REF!="T",#REF!=#REF!),", 12",""))))))</f>
         <v>#REF!</v>
@@ -74873,7 +74879,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="2" t="e">
         <f>CONCATENATE(A2,A3,A4,A5,A6,A7,A8,A9,A10,A11,A12,A13)</f>
         <v>#REF!</v>
@@ -74915,7 +74921,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15.75">
       <c r="C16" s="5" t="s">
         <v>3</v>
       </c>
@@ -74924,7 +74930,7 @@
       </c>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15.75">
       <c r="A17" s="3"/>
       <c r="C17" s="5" t="s">
         <v>7</v>
@@ -74936,7 +74942,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="30">
       <c r="A18" s="4" t="s">
         <v>0</v>
       </c>
@@ -74950,7 +74956,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="30">
       <c r="A19" s="4" t="s">
         <v>1</v>
       </c>
@@ -74964,7 +74970,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15.75">
       <c r="A20" s="7" t="s">
         <v>71</v>
       </c>
@@ -74978,7 +74984,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="6" customFormat="1" ht="30">
       <c r="A21" s="7" t="s">
         <v>70</v>
       </c>
@@ -74988,7 +74994,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="45">
       <c r="A22" s="4" t="s">
         <v>2</v>
       </c>
@@ -74996,7 +75002,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="30">
       <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
@@ -75004,107 +75010,107 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="30">
       <c r="F24" s="16" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="30">
       <c r="F25" s="16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="30">
       <c r="F26" s="16" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="30">
       <c r="F27" s="16" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="30">
       <c r="F28" s="16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="45">
       <c r="F29" s="16" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="30">
       <c r="F30" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="45">
       <c r="F31" s="29" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="45">
       <c r="F32" s="16" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="6:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:6" ht="60">
       <c r="F33" s="16" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="6:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:6" ht="45">
       <c r="F34" s="16" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="6:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:6" ht="30">
       <c r="F35" s="16" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="36" spans="6:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="6:6" ht="60">
       <c r="F36" s="29" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="6:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:6" ht="30">
       <c r="F37" s="30" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="6:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:6" ht="30">
       <c r="F38" s="30" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="6:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:6" ht="30">
       <c r="F39" s="30" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:6">
       <c r="F40" s="29" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="6:6">
       <c r="F41" s="16"/>
     </row>
-    <row r="42" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="6:6">
       <c r="F42" s="16"/>
     </row>
-    <row r="43" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="6:6">
       <c r="F43" s="16"/>
     </row>
-    <row r="44" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="6:6">
       <c r="F44" s="16"/>
     </row>
-    <row r="45" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="6:6">
       <c r="F45" s="16"/>
     </row>
-    <row r="46" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="6:6">
       <c r="F46" s="16"/>
     </row>
   </sheetData>
@@ -75122,7 +75128,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.42578125" style="8" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="8" customWidth="1"/>
@@ -75139,7 +75145,7 @@
     <col min="17" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="14" t="s">
         <v>15</v>
       </c>
@@ -75162,7 +75168,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="12" t="s">
         <v>104</v>
       </c>
@@ -75185,7 +75191,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
@@ -75208,7 +75214,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
@@ -75228,7 +75234,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="11" t="s">
         <v>9</v>
       </c>
@@ -75248,7 +75254,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="B6" s="9">
         <v>5</v>
       </c>
@@ -75262,7 +75268,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="B7" s="9">
         <v>6</v>
       </c>
@@ -75276,7 +75282,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15.75" thickBot="1">
       <c r="B8" s="10" t="s">
         <v>31</v>
       </c>
@@ -75287,7 +75293,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="G9" s="9" t="s">
         <v>29</v>
       </c>
@@ -75295,15 +75301,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="G10" s="9"/>
       <c r="H10" s="18"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="G11" s="9"/>
       <c r="H11" s="18"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="B16" s="17"/>
     </row>
   </sheetData>
